--- a/xdoc/words-9.3/名词词库.xlsx
+++ b/xdoc/words-9.3/名词词库.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/xdoc/words-9.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E8E3941C-068A-F942-8887-E94B4ACE6926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7B6D98-3BCF-5541-9A77-26904E2B66C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -6293,1700 +6285,1702 @@
     <t>色木</t>
   </si>
   <si>
+    <t>栅板</t>
+  </si>
+  <si>
+    <t>杉木</t>
+  </si>
+  <si>
+    <t>山铁罗竹</t>
+  </si>
+  <si>
+    <t>鳝鱼头</t>
+  </si>
+  <si>
+    <t>膳桌</t>
+  </si>
+  <si>
+    <t>商代木抬盘</t>
+  </si>
+  <si>
+    <t>商代铜三联甗座架</t>
+  </si>
+  <si>
+    <t>什景灯</t>
+  </si>
+  <si>
+    <t>绳床</t>
+  </si>
+  <si>
+    <t>升降式灯台</t>
+  </si>
+  <si>
+    <t>食案</t>
+  </si>
+  <si>
+    <t>石灯</t>
+  </si>
+  <si>
+    <t>食格</t>
+  </si>
+  <si>
+    <t>石屏</t>
+  </si>
+  <si>
+    <t>十字枨</t>
+  </si>
+  <si>
+    <t>书案</t>
+  </si>
+  <si>
+    <t>梳背椅</t>
+  </si>
+  <si>
+    <t>树根藤瘿家具</t>
+  </si>
+  <si>
+    <t>书卷头</t>
+  </si>
+  <si>
+    <t>束腰</t>
+  </si>
+  <si>
+    <t>梳妆箱</t>
+  </si>
+  <si>
+    <t>闩竿</t>
+  </si>
+  <si>
+    <t>水沟槽</t>
+  </si>
+  <si>
+    <t>水曲柳</t>
+  </si>
+  <si>
+    <t>睡翁椅</t>
+  </si>
+  <si>
+    <t>水竹</t>
+  </si>
+  <si>
+    <t>四出头官帽椅</t>
+  </si>
+  <si>
+    <t>四件柜</t>
+  </si>
+  <si>
+    <t>四仙桌</t>
+  </si>
+  <si>
+    <t>宋代螺甸桌椅</t>
+  </si>
+  <si>
+    <t>宋代石屏风</t>
+  </si>
+  <si>
+    <t>宋代砖室墓浮雕镜架</t>
+  </si>
+  <si>
+    <t>塑合木</t>
+  </si>
+  <si>
+    <t>塑料画膜拓印</t>
+  </si>
+  <si>
+    <t>塑料家具</t>
+  </si>
+  <si>
+    <t>塑料嵌条</t>
+  </si>
+  <si>
+    <t>塑料贴面板</t>
+  </si>
+  <si>
+    <t>塑料贴面家具</t>
+  </si>
+  <si>
+    <t>苏式家具</t>
+  </si>
+  <si>
+    <t>苏式小件</t>
+  </si>
+  <si>
+    <t>苏做</t>
+  </si>
+  <si>
+    <t>碎料胶合家具</t>
+  </si>
+  <si>
+    <t>榫合</t>
+  </si>
+  <si>
+    <t>榫肩</t>
+  </si>
+  <si>
+    <t>筍虡</t>
+  </si>
+  <si>
+    <t>簨虡</t>
+  </si>
+  <si>
+    <t>榫卯</t>
+  </si>
+  <si>
+    <t>榫舌</t>
+  </si>
+  <si>
+    <t>榫头</t>
+  </si>
+  <si>
+    <t>笋头卯眼</t>
+  </si>
+  <si>
+    <t>榫眼</t>
+  </si>
+  <si>
+    <t>踏床</t>
+  </si>
+  <si>
+    <t>踏脚板</t>
+  </si>
+  <si>
+    <t>踏脚档</t>
+  </si>
+  <si>
+    <t>台屏</t>
+  </si>
+  <si>
+    <t>太师椅</t>
+  </si>
+  <si>
+    <t>檀香</t>
+  </si>
+  <si>
+    <t>唐代长案</t>
+  </si>
+  <si>
+    <t>唐代月牙杌子</t>
+  </si>
+  <si>
+    <t>套几</t>
+  </si>
+  <si>
+    <t>套脚</t>
+  </si>
+  <si>
+    <t>套榫</t>
+  </si>
+  <si>
+    <t>绦条板</t>
+  </si>
+  <si>
+    <t>陶质家具</t>
+  </si>
+  <si>
+    <t>特大方</t>
+  </si>
+  <si>
+    <t>特厚板</t>
+  </si>
+  <si>
+    <t>藤编竹家具</t>
+  </si>
+  <si>
+    <t>藤床</t>
+  </si>
+  <si>
+    <t>藤椅</t>
+  </si>
+  <si>
+    <t>藤制家具</t>
+  </si>
+  <si>
+    <t>绨几</t>
+  </si>
+  <si>
+    <t>梯阶床</t>
+  </si>
+  <si>
+    <t>甜瓜棱</t>
+  </si>
+  <si>
+    <t>天盘线</t>
+  </si>
+  <si>
+    <t>天然几</t>
+  </si>
+  <si>
+    <t>天圆地方</t>
+  </si>
+  <si>
+    <t>甜竹</t>
+  </si>
+  <si>
+    <t>条案</t>
+  </si>
+  <si>
+    <t>调五门</t>
+  </si>
+  <si>
+    <t>调箱</t>
+  </si>
+  <si>
+    <t>条桌</t>
+  </si>
+  <si>
+    <t>贴花片</t>
+  </si>
+  <si>
+    <t>铁力板足条几</t>
+  </si>
+  <si>
+    <t>贴面家具</t>
+  </si>
+  <si>
+    <t>桯凳</t>
+  </si>
+  <si>
+    <t>通槽</t>
+  </si>
+  <si>
+    <t>铜饰件</t>
+  </si>
+  <si>
+    <t>透榫</t>
+  </si>
+  <si>
+    <t>骰子桌</t>
+  </si>
+  <si>
+    <t>推拉门</t>
+  </si>
+  <si>
+    <t>托档</t>
+  </si>
+  <si>
+    <t>拖脚</t>
+  </si>
+  <si>
+    <t>托角榫</t>
+  </si>
+  <si>
+    <t>托角牙子</t>
+  </si>
+  <si>
+    <t>托泥</t>
+  </si>
+  <si>
+    <t>托腮</t>
+  </si>
+  <si>
+    <t>托闩钉</t>
+  </si>
+  <si>
+    <t>托子</t>
+  </si>
+  <si>
+    <t>挖弯</t>
+  </si>
+  <si>
+    <t>挖烟袋锅做法</t>
+  </si>
+  <si>
+    <t>瓦质家具</t>
+  </si>
+  <si>
+    <t>外翻马蹄</t>
+  </si>
+  <si>
+    <t>碗橱</t>
+  </si>
+  <si>
+    <t>万历款龙纹黑漆药柜</t>
+  </si>
+  <si>
+    <t>委角</t>
+  </si>
+  <si>
+    <t>围屏</t>
+  </si>
+  <si>
+    <t>围椅</t>
+  </si>
+  <si>
+    <t>文木</t>
+  </si>
+  <si>
+    <t>文武线</t>
+  </si>
+  <si>
+    <t>文椅</t>
+  </si>
+  <si>
+    <t>五代三折大屏风</t>
+  </si>
+  <si>
+    <t>杌凳</t>
+  </si>
+  <si>
+    <t>吴江竹椅</t>
+  </si>
+  <si>
+    <t>乌木</t>
+  </si>
+  <si>
+    <t>乌药竹</t>
+  </si>
+  <si>
+    <t>杌子</t>
+  </si>
+  <si>
+    <t>西汉五彩画屏风</t>
+  </si>
+  <si>
+    <t>细木工板</t>
+  </si>
+  <si>
+    <t>喜事连</t>
+  </si>
+  <si>
+    <t>西魏扶手椅</t>
+  </si>
+  <si>
+    <t>现代家具</t>
+  </si>
+  <si>
+    <t>线脚</t>
+  </si>
+  <si>
+    <t>纤维板</t>
+  </si>
+  <si>
+    <t>纤维板家具</t>
+  </si>
+  <si>
+    <t>纤维刨花板</t>
+  </si>
+  <si>
+    <t>线香线</t>
+  </si>
+  <si>
+    <t>线样</t>
+  </si>
+  <si>
+    <t>仙椅</t>
+  </si>
+  <si>
+    <t>闲余书架</t>
+  </si>
+  <si>
+    <t>湘妃竹</t>
+  </si>
+  <si>
+    <t>箱柜</t>
+  </si>
+  <si>
+    <t>香几</t>
+  </si>
+  <si>
+    <t>项墨林棐几</t>
+  </si>
+  <si>
+    <t>镶平面</t>
+  </si>
+  <si>
+    <t>湘竹榻</t>
+  </si>
+  <si>
+    <t>小方</t>
+  </si>
+  <si>
+    <t>小木椅</t>
+  </si>
+  <si>
+    <t>小木作</t>
+  </si>
+  <si>
+    <t>小榻</t>
+  </si>
+  <si>
+    <t>楔钉榫</t>
+  </si>
+  <si>
+    <t>行障</t>
+  </si>
+  <si>
+    <t>绣墩</t>
+  </si>
+  <si>
+    <t>虚镶</t>
+  </si>
+  <si>
+    <t>栒虡</t>
+  </si>
+  <si>
+    <t>牙板</t>
+  </si>
+  <si>
+    <t>牙角</t>
+  </si>
+  <si>
+    <t>压片</t>
+  </si>
+  <si>
+    <t>压片钉</t>
+  </si>
+  <si>
+    <t>牙条</t>
+  </si>
+  <si>
+    <t>鸭尾子式</t>
+  </si>
+  <si>
+    <t>压纹刨花板</t>
+  </si>
+  <si>
+    <t>牙子</t>
+  </si>
+  <si>
+    <t>燕几</t>
+  </si>
+  <si>
+    <t>砚屏</t>
+  </si>
+  <si>
+    <t>燕尾榫</t>
+  </si>
+  <si>
+    <t>烟竹</t>
+  </si>
+  <si>
+    <t>样板</t>
+  </si>
+  <si>
+    <t>秧凳</t>
+  </si>
+  <si>
+    <t>阳线</t>
+  </si>
+  <si>
+    <t>药橱</t>
+  </si>
+  <si>
+    <t>摇竿</t>
+  </si>
+  <si>
+    <t>一封书桌</t>
+  </si>
+  <si>
+    <t>衣架</t>
+  </si>
+  <si>
+    <t>衣笼</t>
+  </si>
+  <si>
+    <t>移门</t>
+  </si>
+  <si>
+    <t>椅盘</t>
+  </si>
+  <si>
+    <t>椅圈</t>
+  </si>
+  <si>
+    <t>衣笥</t>
+  </si>
+  <si>
+    <t>一统碑</t>
+  </si>
+  <si>
+    <t>一腿三牙</t>
+  </si>
+  <si>
+    <t>衣箱</t>
+  </si>
+  <si>
+    <t>仪征出土西汉漆案</t>
+  </si>
+  <si>
+    <t>隐几</t>
+  </si>
+  <si>
+    <t>隐囊</t>
+  </si>
+  <si>
+    <t>银杏</t>
+  </si>
+  <si>
+    <t>迎面</t>
+  </si>
+  <si>
+    <t>瘿木</t>
+  </si>
+  <si>
+    <t>硬木家具</t>
+  </si>
+  <si>
+    <t>影条</t>
+  </si>
+  <si>
+    <t>硬质木纤维板</t>
+  </si>
+  <si>
+    <t>永石</t>
+  </si>
+  <si>
+    <t>柚木</t>
+  </si>
+  <si>
+    <t>油桌</t>
+  </si>
+  <si>
+    <t>郁架</t>
+  </si>
+  <si>
+    <t>榆木</t>
+  </si>
+  <si>
+    <t>圆棒榫</t>
+  </si>
+  <si>
+    <t>元代壁画的花几</t>
+  </si>
+  <si>
+    <t>元代壁画中的长方桌</t>
+  </si>
+  <si>
+    <t>圆角柜</t>
+  </si>
+  <si>
+    <t>圆盆架</t>
+  </si>
+  <si>
+    <t>圆椅</t>
+  </si>
+  <si>
+    <t>圆桌</t>
+  </si>
+  <si>
+    <t>月牙扶手</t>
+  </si>
+  <si>
+    <t>月牙桌</t>
+  </si>
+  <si>
+    <t>云木</t>
+  </si>
+  <si>
+    <t>云屏</t>
+  </si>
+  <si>
+    <t>栽榫</t>
+  </si>
+  <si>
+    <t>栽销</t>
+  </si>
+  <si>
+    <t>札榫</t>
+  </si>
+  <si>
+    <t>战国彩绘漆木床</t>
+  </si>
+  <si>
+    <t>战国雕花木几</t>
+  </si>
+  <si>
+    <t>战国金银彩绘漆案</t>
+  </si>
+  <si>
+    <t>战国漆木箱</t>
+  </si>
+  <si>
+    <t>战国铜方案</t>
+  </si>
+  <si>
+    <t>站牙</t>
+  </si>
+  <si>
+    <t>帐构</t>
+  </si>
+  <si>
+    <t>樟木箱</t>
+  </si>
+  <si>
+    <t>账桌</t>
+  </si>
+  <si>
+    <t>折尺</t>
+  </si>
+  <si>
+    <t>折叠单靠</t>
+  </si>
+  <si>
+    <t>折叠门</t>
+  </si>
+  <si>
+    <t>折叠式家具</t>
+  </si>
+  <si>
+    <t>折屏</t>
+  </si>
+  <si>
+    <t>枕首</t>
+  </si>
+  <si>
+    <t>枕头</t>
+  </si>
+  <si>
+    <t>整边材</t>
+  </si>
+  <si>
+    <t>整体衣柜</t>
+  </si>
+  <si>
+    <t>直背交椅</t>
+  </si>
+  <si>
+    <t>直角方榫</t>
+  </si>
+  <si>
+    <t>芝麻梗</t>
+  </si>
+  <si>
+    <t>中板</t>
+  </si>
+  <si>
+    <t>中方</t>
+  </si>
+  <si>
+    <t>中牌子</t>
+  </si>
+  <si>
+    <t>竹材烙花</t>
+  </si>
+  <si>
+    <t>竹材着色</t>
+  </si>
+  <si>
+    <t>竹钉</t>
+  </si>
+  <si>
+    <t>竹靠椅</t>
+  </si>
+  <si>
+    <t>竹面</t>
+  </si>
+  <si>
+    <t>竹爿浑</t>
+  </si>
+  <si>
+    <t>朱漆家具</t>
+  </si>
+  <si>
+    <t>竹青胶面</t>
+  </si>
+  <si>
+    <t>竹圈椅</t>
+  </si>
+  <si>
+    <t>竹踏凳</t>
+  </si>
+  <si>
+    <t>竹质刨花板</t>
+  </si>
+  <si>
+    <t>竹制家具</t>
+  </si>
+  <si>
+    <t>竹子</t>
+  </si>
+  <si>
+    <t>转屏</t>
+  </si>
+  <si>
+    <t>转椅</t>
+  </si>
+  <si>
+    <t>专诸禅椅</t>
+  </si>
+  <si>
+    <t>装板</t>
+  </si>
+  <si>
+    <t>装饰板</t>
+  </si>
+  <si>
+    <t>装饰部件</t>
+  </si>
+  <si>
+    <t>桌型结构</t>
+  </si>
+  <si>
+    <t>梓匠</t>
+  </si>
+  <si>
+    <t>子口</t>
+  </si>
+  <si>
+    <t>梓人</t>
+  </si>
+  <si>
+    <t>紫檀黑漆桌面画桌</t>
+  </si>
+  <si>
+    <t>紫檀灵芝纹画桌</t>
+  </si>
+  <si>
+    <t>紫檀木方凳</t>
+  </si>
+  <si>
+    <t>紫檀木四开光坐墩</t>
+  </si>
+  <si>
+    <t>紫檀有束腰带托泥荷花椅</t>
+  </si>
+  <si>
+    <t>棕绷</t>
+  </si>
+  <si>
+    <t>粽角榫</t>
+  </si>
+  <si>
+    <t>走马销</t>
+  </si>
+  <si>
+    <t>足凳</t>
+  </si>
+  <si>
+    <t>组合家具</t>
+  </si>
+  <si>
+    <t>坐墩</t>
+  </si>
+  <si>
+    <t>座柜</t>
+  </si>
+  <si>
+    <t>坐轿</t>
+  </si>
+  <si>
+    <t>柞木</t>
+  </si>
+  <si>
+    <t>座屏</t>
+  </si>
+  <si>
+    <t>锅</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>瓢</t>
+  </si>
+  <si>
+    <t>盆</t>
+  </si>
+  <si>
+    <t>筷子</t>
+  </si>
+  <si>
+    <t>不粘锅</t>
+  </si>
+  <si>
+    <t>碟</t>
+  </si>
+  <si>
+    <t>餐刀</t>
+  </si>
+  <si>
+    <t>餐叉</t>
+  </si>
+  <si>
+    <t>茶杯</t>
+  </si>
+  <si>
+    <t>汤匙</t>
+  </si>
+  <si>
+    <t>杯子</t>
+  </si>
+  <si>
+    <t>盘子</t>
+  </si>
+  <si>
+    <t>陶瓷碗</t>
+  </si>
+  <si>
+    <t>平底锅</t>
+  </si>
+  <si>
+    <t>铅笔</t>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t>橡皮</t>
+  </si>
+  <si>
+    <t>胶带</t>
+  </si>
+  <si>
+    <t>文具盒</t>
+  </si>
+  <si>
+    <t>水彩笔</t>
+  </si>
+  <si>
+    <t>毛笔</t>
+  </si>
+  <si>
+    <t>直尺</t>
+  </si>
+  <si>
+    <t>三角尺</t>
+  </si>
+  <si>
+    <t>素描本</t>
+  </si>
+  <si>
+    <t>圆珠笔</t>
+  </si>
+  <si>
+    <t>涂改液</t>
+  </si>
+  <si>
+    <t>涂改带</t>
+  </si>
+  <si>
+    <t>书包</t>
+  </si>
+  <si>
+    <t>图画本</t>
+  </si>
+  <si>
+    <t>方格本</t>
+  </si>
+  <si>
+    <t>田字本</t>
+  </si>
+  <si>
+    <t>蜡笔</t>
+  </si>
+  <si>
+    <t>彩笔</t>
+  </si>
+  <si>
+    <t>记号笔</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>油烟机</t>
+  </si>
+  <si>
+    <t>双电机</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>电磁炉</t>
+  </si>
+  <si>
+    <t>微波炉</t>
+  </si>
+  <si>
+    <t>电饭锅</t>
+  </si>
+  <si>
+    <t>电热毯</t>
+  </si>
+  <si>
+    <t>电热水壶</t>
+  </si>
+  <si>
+    <t>电熨斗</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>摩托车</t>
+  </si>
+  <si>
+    <t>三轮车</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>电动车</t>
+  </si>
+  <si>
+    <t>轮船</t>
+  </si>
+  <si>
+    <t>渔船</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>客机</t>
+  </si>
+  <si>
+    <t>直升飞机</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>公共汽车</t>
+  </si>
+  <si>
+    <t>轿车</t>
+  </si>
+  <si>
+    <t>记者</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>校对员</t>
+  </si>
+  <si>
+    <t>播音员</t>
+  </si>
+  <si>
+    <t>主持人</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>图书管理员</t>
+  </si>
+  <si>
+    <t>科学家</t>
+  </si>
+  <si>
+    <t>售货员</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t>仓库管理员</t>
+  </si>
+  <si>
+    <t>导游</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>麻醉师</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>摄影师</t>
+  </si>
+  <si>
+    <t>美容师</t>
+  </si>
+  <si>
+    <t>美发师</t>
+  </si>
+  <si>
+    <t>理发师</t>
+  </si>
+  <si>
+    <t>环卫工</t>
+  </si>
+  <si>
+    <t>保育员</t>
+  </si>
+  <si>
+    <t>育婴员</t>
+  </si>
+  <si>
+    <t>营业员</t>
+  </si>
+  <si>
+    <t>快递员</t>
+  </si>
+  <si>
+    <t>话务员</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>营养师</t>
+  </si>
+  <si>
+    <t>展览讲解员</t>
+  </si>
+  <si>
+    <t>解说员</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>饲养员</t>
+  </si>
+  <si>
+    <t>兽医</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>产品经理</t>
+  </si>
+  <si>
+    <t>施工员</t>
+  </si>
+  <si>
+    <t>安全员</t>
+  </si>
+  <si>
+    <t>程序员</t>
+  </si>
+  <si>
+    <t>司机</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>编剧</t>
+  </si>
+  <si>
+    <t>导演</t>
+  </si>
+  <si>
+    <t>演员</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>法官</t>
+  </si>
+  <si>
+    <t>检察官</t>
+  </si>
+  <si>
+    <t>公证员</t>
+  </si>
+  <si>
+    <t>书记员</t>
+  </si>
+  <si>
+    <t>保安</t>
+  </si>
+  <si>
+    <t>消防员</t>
+  </si>
+  <si>
+    <t>飞行员</t>
+  </si>
+  <si>
+    <t>教练员</t>
+  </si>
+  <si>
+    <t>裁判员</t>
+  </si>
+  <si>
+    <t>运动员</t>
+  </si>
+  <si>
+    <t>经纪人</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>调香师</t>
+  </si>
+  <si>
+    <t>咖啡师</t>
+  </si>
+  <si>
+    <t>美甲师</t>
+  </si>
+  <si>
+    <t>阿爸</t>
+  </si>
+  <si>
+    <t>阿伯</t>
+  </si>
+  <si>
+    <t>阿爹</t>
+  </si>
+  <si>
+    <t>阿妈</t>
+  </si>
+  <si>
+    <t>阿娘</t>
+  </si>
+  <si>
+    <t>阿婶</t>
+  </si>
+  <si>
+    <t>阿叔</t>
+  </si>
+  <si>
+    <t>阿姨</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+  </si>
+  <si>
+    <t>表弟</t>
+  </si>
+  <si>
+    <t>表哥</t>
+  </si>
+  <si>
+    <t>表姑</t>
+  </si>
+  <si>
+    <t>表姐</t>
+  </si>
+  <si>
+    <t>表妹</t>
+  </si>
+  <si>
+    <t>表叔</t>
+  </si>
+  <si>
+    <t>表兄弟</t>
+  </si>
+  <si>
+    <t>表侄</t>
+  </si>
+  <si>
+    <t>表姊妹</t>
+  </si>
+  <si>
+    <t>伯伯</t>
+  </si>
+  <si>
+    <t>伯父</t>
+  </si>
+  <si>
+    <t>伯母</t>
+  </si>
+  <si>
+    <t>伯叔</t>
+  </si>
+  <si>
+    <t>曾外祖父</t>
+  </si>
+  <si>
+    <t>曾外祖母</t>
+  </si>
+  <si>
+    <t>大伯</t>
+  </si>
+  <si>
+    <t>大姑</t>
+  </si>
+  <si>
+    <t>大姑子</t>
+  </si>
+  <si>
+    <t>大舅子</t>
+  </si>
+  <si>
+    <t>大妈</t>
+  </si>
+  <si>
+    <t>大娘</t>
+  </si>
+  <si>
+    <t>大爷</t>
+  </si>
+  <si>
+    <t>大姨</t>
+  </si>
+  <si>
+    <t>弟弟</t>
+  </si>
+  <si>
+    <t>弟妇</t>
+  </si>
+  <si>
+    <t>弟妹</t>
+  </si>
+  <si>
+    <t>弟媳</t>
+  </si>
+  <si>
+    <t>爹地</t>
+  </si>
+  <si>
+    <t>二弟</t>
+  </si>
+  <si>
+    <t>儿媳</t>
+  </si>
+  <si>
+    <t>儿媳妇</t>
+  </si>
+  <si>
+    <t>儿子</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>干爹</t>
+  </si>
+  <si>
+    <t>干妈</t>
+  </si>
+  <si>
+    <t>干亲家</t>
+  </si>
+  <si>
+    <t>高祖父</t>
+  </si>
+  <si>
+    <t>高祖母</t>
+  </si>
+  <si>
+    <t>哥哥</t>
+  </si>
+  <si>
+    <t>公公</t>
+  </si>
+  <si>
+    <t>姑夫</t>
+  </si>
+  <si>
+    <t>姑姑</t>
+  </si>
+  <si>
+    <t>姑母</t>
+  </si>
+  <si>
+    <t>姑奶奶</t>
+  </si>
+  <si>
+    <t>姑爷</t>
+  </si>
+  <si>
+    <t>继父</t>
+  </si>
+  <si>
+    <t>继母</t>
+  </si>
+  <si>
+    <t>继娘</t>
+  </si>
+  <si>
+    <t>继爷</t>
+  </si>
+  <si>
+    <t>姐夫</t>
+  </si>
+  <si>
+    <t>姐姐</t>
+  </si>
+  <si>
+    <t>襟弟</t>
+  </si>
+  <si>
+    <t>襟兄</t>
+  </si>
+  <si>
+    <t>妗子</t>
+  </si>
+  <si>
+    <t>YF</t>
+  </si>
+  <si>
+    <t>舅父</t>
+  </si>
+  <si>
+    <t>舅舅</t>
+  </si>
+  <si>
+    <t>舅姥</t>
+  </si>
+  <si>
+    <t>舅妈</t>
+  </si>
+  <si>
+    <t>舅母</t>
+  </si>
+  <si>
+    <t>舅母子</t>
+  </si>
+  <si>
+    <t>老弟</t>
+  </si>
+  <si>
+    <t>老哥</t>
+  </si>
+  <si>
+    <t>老公</t>
+  </si>
+  <si>
+    <t>老姐</t>
+  </si>
+  <si>
+    <t>姥姥</t>
+  </si>
+  <si>
+    <t>老妹</t>
+  </si>
+  <si>
+    <t>老奶奶</t>
+  </si>
+  <si>
+    <t>老婆</t>
+  </si>
+  <si>
+    <t>老挑</t>
+  </si>
+  <si>
+    <t>姥爷</t>
+  </si>
+  <si>
+    <t>老爷</t>
+  </si>
+  <si>
+    <t>老爷爷</t>
+  </si>
+  <si>
+    <t>连襟</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>妈咪</t>
+  </si>
+  <si>
+    <t>妹夫</t>
+  </si>
+  <si>
+    <t>妹妹</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+  </si>
+  <si>
+    <t>囝囝</t>
+  </si>
+  <si>
+    <t>囡囡</t>
+  </si>
+  <si>
+    <t>内弟</t>
+  </si>
+  <si>
+    <t>内兄</t>
+  </si>
+  <si>
+    <t>娘舅</t>
+  </si>
+  <si>
+    <t>女儿</t>
+  </si>
+  <si>
+    <t>女婿</t>
+  </si>
+  <si>
+    <t>旁系</t>
+  </si>
+  <si>
+    <t>婆婆</t>
+  </si>
+  <si>
+    <t>妻妹子</t>
+  </si>
+  <si>
+    <t>妻子</t>
+  </si>
+  <si>
+    <t>亲人</t>
+  </si>
+  <si>
+    <t>三弟</t>
+  </si>
+  <si>
+    <t>嫂子</t>
+  </si>
+  <si>
+    <t>婶母</t>
+  </si>
+  <si>
+    <t>婶婶</t>
+  </si>
+  <si>
+    <t>婶子</t>
+  </si>
+  <si>
+    <t>叔父</t>
+  </si>
+  <si>
+    <t>叔叔</t>
+  </si>
+  <si>
+    <t>叔丈母</t>
+  </si>
+  <si>
+    <t>叔丈人</t>
+  </si>
+  <si>
+    <t>孙女</t>
+  </si>
+  <si>
+    <t>孙女婿</t>
+  </si>
+  <si>
+    <t>孙媳妇</t>
+  </si>
+  <si>
+    <t>堂弟</t>
+  </si>
+  <si>
+    <t>堂哥</t>
+  </si>
+  <si>
+    <t>堂姐</t>
+  </si>
+  <si>
+    <t>堂妹</t>
+  </si>
+  <si>
+    <t>堂兄弟</t>
+  </si>
+  <si>
+    <t>堂姊妹</t>
+  </si>
+  <si>
+    <t>外公</t>
+  </si>
+  <si>
+    <t>外婆</t>
+  </si>
+  <si>
+    <t>外甥</t>
+  </si>
+  <si>
+    <t>外甥女</t>
+  </si>
+  <si>
+    <t>外甥女婿</t>
+  </si>
+  <si>
+    <t>外甥媳妇</t>
+  </si>
+  <si>
+    <t>外孙</t>
+  </si>
+  <si>
+    <t>外孙女</t>
+  </si>
+  <si>
+    <t>外祖父</t>
+  </si>
+  <si>
+    <t>外祖母</t>
+  </si>
+  <si>
+    <t>媳妇</t>
+  </si>
+  <si>
+    <t>小姑</t>
+  </si>
+  <si>
+    <t>小姑子</t>
+  </si>
+  <si>
+    <t>小舅子</t>
+  </si>
+  <si>
+    <t>小叔</t>
+  </si>
+  <si>
+    <t>小姨</t>
+  </si>
+  <si>
+    <t>小姨妹</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <t>玄孙</t>
+  </si>
+  <si>
+    <t>血老表</t>
+  </si>
+  <si>
+    <t>养父</t>
+  </si>
+  <si>
+    <t>养母</t>
+  </si>
+  <si>
+    <t>幺爸</t>
+  </si>
+  <si>
+    <t>幺婶</t>
+  </si>
+  <si>
+    <t>爷叔</t>
+  </si>
+  <si>
+    <t>爷爷</t>
+  </si>
+  <si>
+    <t>姨夫</t>
+  </si>
+  <si>
+    <t>姨公</t>
+  </si>
+  <si>
+    <t>姨姐</t>
+  </si>
+  <si>
+    <t>姨老表</t>
+  </si>
+  <si>
+    <t>姨妈</t>
+  </si>
+  <si>
+    <t>姨妹</t>
+  </si>
+  <si>
+    <t>姨妹夫</t>
+  </si>
+  <si>
+    <t>姨母</t>
+  </si>
+  <si>
+    <t>姨叔</t>
+  </si>
+  <si>
+    <t>姻亲</t>
+  </si>
+  <si>
+    <t>幼弟</t>
+  </si>
+  <si>
+    <t>幼妹</t>
+  </si>
+  <si>
+    <t>岳父</t>
+  </si>
+  <si>
+    <t>岳母</t>
+  </si>
+  <si>
+    <t>曾孙</t>
+  </si>
+  <si>
+    <t>曾祖父</t>
+  </si>
+  <si>
+    <t>曾祖母</t>
+  </si>
+  <si>
+    <t>丈夫</t>
+  </si>
+  <si>
+    <t>丈母娘</t>
+  </si>
+  <si>
+    <t>丈人</t>
+  </si>
+  <si>
+    <t>长兄</t>
+  </si>
+  <si>
+    <t>长姊</t>
+  </si>
+  <si>
+    <t>侄女</t>
+  </si>
+  <si>
+    <t>侄女婿</t>
+  </si>
+  <si>
+    <t>侄孙</t>
+  </si>
+  <si>
+    <t>侄孙女</t>
+  </si>
+  <si>
+    <t>侄媳妇</t>
+  </si>
+  <si>
+    <t>侄子</t>
+  </si>
+  <si>
+    <t>妯娌</t>
+  </si>
+  <si>
+    <t>姊夫</t>
+  </si>
+  <si>
+    <t>祖父</t>
+  </si>
+  <si>
+    <t>祖姑母</t>
+  </si>
+  <si>
+    <t>祖母</t>
+  </si>
+  <si>
     <t>沙园竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纱照屏</t>
-  </si>
-  <si>
-    <t>栅板</t>
-  </si>
-  <si>
-    <t>杉木</t>
-  </si>
-  <si>
-    <t>山铁罗竹</t>
-  </si>
-  <si>
-    <t>鳝鱼头</t>
-  </si>
-  <si>
-    <t>膳桌</t>
-  </si>
-  <si>
-    <t>商代木抬盘</t>
-  </si>
-  <si>
-    <t>商代铜三联甗座架</t>
-  </si>
-  <si>
-    <t>什景灯</t>
-  </si>
-  <si>
-    <t>绳床</t>
-  </si>
-  <si>
-    <t>升降式灯台</t>
-  </si>
-  <si>
-    <t>食案</t>
-  </si>
-  <si>
-    <t>石灯</t>
-  </si>
-  <si>
-    <t>食格</t>
-  </si>
-  <si>
-    <t>石屏</t>
-  </si>
-  <si>
-    <t>十字枨</t>
-  </si>
-  <si>
-    <t>书案</t>
-  </si>
-  <si>
-    <t>梳背椅</t>
-  </si>
-  <si>
-    <t>树根藤瘿家具</t>
-  </si>
-  <si>
-    <t>书卷头</t>
-  </si>
-  <si>
-    <t>束腰</t>
-  </si>
-  <si>
-    <t>梳妆箱</t>
-  </si>
-  <si>
-    <t>闩竿</t>
-  </si>
-  <si>
-    <t>水沟槽</t>
-  </si>
-  <si>
-    <t>水曲柳</t>
-  </si>
-  <si>
-    <t>睡翁椅</t>
-  </si>
-  <si>
-    <t>水竹</t>
-  </si>
-  <si>
-    <t>四出头官帽椅</t>
-  </si>
-  <si>
-    <t>四件柜</t>
-  </si>
-  <si>
-    <t>四仙桌</t>
-  </si>
-  <si>
-    <t>宋代螺甸桌椅</t>
-  </si>
-  <si>
-    <t>宋代石屏风</t>
-  </si>
-  <si>
-    <t>宋代砖室墓浮雕镜架</t>
-  </si>
-  <si>
-    <t>塑合木</t>
-  </si>
-  <si>
-    <t>塑料画膜拓印</t>
-  </si>
-  <si>
-    <t>塑料家具</t>
-  </si>
-  <si>
-    <t>塑料嵌条</t>
-  </si>
-  <si>
-    <t>塑料贴面板</t>
-  </si>
-  <si>
-    <t>塑料贴面家具</t>
-  </si>
-  <si>
-    <t>苏式家具</t>
-  </si>
-  <si>
-    <t>苏式小件</t>
-  </si>
-  <si>
-    <t>苏做</t>
-  </si>
-  <si>
-    <t>碎料胶合家具</t>
-  </si>
-  <si>
-    <t>榫合</t>
-  </si>
-  <si>
-    <t>榫肩</t>
-  </si>
-  <si>
-    <t>筍虡</t>
-  </si>
-  <si>
-    <t>簨虡</t>
-  </si>
-  <si>
-    <t>榫卯</t>
-  </si>
-  <si>
-    <t>榫舌</t>
-  </si>
-  <si>
-    <t>榫头</t>
-  </si>
-  <si>
-    <t>笋头卯眼</t>
-  </si>
-  <si>
-    <t>榫眼</t>
-  </si>
-  <si>
-    <t>踏床</t>
-  </si>
-  <si>
-    <t>踏脚板</t>
-  </si>
-  <si>
-    <t>踏脚档</t>
-  </si>
-  <si>
-    <t>台屏</t>
-  </si>
-  <si>
-    <t>太师椅</t>
-  </si>
-  <si>
-    <t>檀香</t>
-  </si>
-  <si>
-    <t>唐代长案</t>
-  </si>
-  <si>
-    <t>唐代月牙杌子</t>
-  </si>
-  <si>
-    <t>套几</t>
-  </si>
-  <si>
-    <t>套脚</t>
-  </si>
-  <si>
-    <t>套榫</t>
-  </si>
-  <si>
-    <t>绦条板</t>
-  </si>
-  <si>
-    <t>陶质家具</t>
-  </si>
-  <si>
-    <t>特大方</t>
-  </si>
-  <si>
-    <t>特厚板</t>
-  </si>
-  <si>
-    <t>藤编竹家具</t>
-  </si>
-  <si>
-    <t>藤床</t>
-  </si>
-  <si>
-    <t>藤椅</t>
-  </si>
-  <si>
-    <t>藤制家具</t>
-  </si>
-  <si>
-    <t>绨几</t>
-  </si>
-  <si>
-    <t>梯阶床</t>
-  </si>
-  <si>
-    <t>甜瓜棱</t>
-  </si>
-  <si>
-    <t>天盘线</t>
-  </si>
-  <si>
-    <t>天然几</t>
-  </si>
-  <si>
-    <t>天圆地方</t>
-  </si>
-  <si>
-    <t>甜竹</t>
-  </si>
-  <si>
-    <t>条案</t>
-  </si>
-  <si>
-    <t>调五门</t>
-  </si>
-  <si>
-    <t>调箱</t>
-  </si>
-  <si>
-    <t>条桌</t>
-  </si>
-  <si>
-    <t>贴花片</t>
-  </si>
-  <si>
-    <t>铁力板足条几</t>
-  </si>
-  <si>
-    <t>贴面家具</t>
-  </si>
-  <si>
-    <t>桯凳</t>
-  </si>
-  <si>
-    <t>通槽</t>
-  </si>
-  <si>
-    <t>铜饰件</t>
-  </si>
-  <si>
-    <t>透榫</t>
-  </si>
-  <si>
-    <t>骰子桌</t>
-  </si>
-  <si>
-    <t>推拉门</t>
-  </si>
-  <si>
-    <t>托档</t>
-  </si>
-  <si>
-    <t>拖脚</t>
-  </si>
-  <si>
-    <t>托角榫</t>
-  </si>
-  <si>
-    <t>托角牙子</t>
-  </si>
-  <si>
-    <t>托泥</t>
-  </si>
-  <si>
-    <t>托腮</t>
-  </si>
-  <si>
-    <t>托闩钉</t>
-  </si>
-  <si>
-    <t>托子</t>
-  </si>
-  <si>
-    <t>挖弯</t>
-  </si>
-  <si>
-    <t>挖烟袋锅做法</t>
-  </si>
-  <si>
-    <t>瓦质家具</t>
-  </si>
-  <si>
-    <t>外翻马蹄</t>
-  </si>
-  <si>
-    <t>碗橱</t>
-  </si>
-  <si>
-    <t>万历款龙纹黑漆药柜</t>
-  </si>
-  <si>
-    <t>委角</t>
-  </si>
-  <si>
-    <t>围屏</t>
-  </si>
-  <si>
-    <t>围椅</t>
-  </si>
-  <si>
-    <t>文木</t>
-  </si>
-  <si>
-    <t>文武线</t>
-  </si>
-  <si>
-    <t>文椅</t>
-  </si>
-  <si>
-    <t>五代三折大屏风</t>
-  </si>
-  <si>
-    <t>杌凳</t>
-  </si>
-  <si>
-    <t>吴江竹椅</t>
-  </si>
-  <si>
-    <t>乌木</t>
-  </si>
-  <si>
-    <t>乌药竹</t>
-  </si>
-  <si>
-    <t>杌子</t>
-  </si>
-  <si>
-    <t>西汉五彩画屏风</t>
-  </si>
-  <si>
-    <t>细木工板</t>
-  </si>
-  <si>
-    <t>喜事连</t>
-  </si>
-  <si>
-    <t>西魏扶手椅</t>
-  </si>
-  <si>
-    <t>现代家具</t>
-  </si>
-  <si>
-    <t>线脚</t>
-  </si>
-  <si>
-    <t>纤维板</t>
-  </si>
-  <si>
-    <t>纤维板家具</t>
-  </si>
-  <si>
-    <t>纤维刨花板</t>
-  </si>
-  <si>
-    <t>线香线</t>
-  </si>
-  <si>
-    <t>线样</t>
-  </si>
-  <si>
-    <t>仙椅</t>
-  </si>
-  <si>
-    <t>闲余书架</t>
-  </si>
-  <si>
-    <t>湘妃竹</t>
-  </si>
-  <si>
-    <t>箱柜</t>
-  </si>
-  <si>
-    <t>香几</t>
-  </si>
-  <si>
-    <t>项墨林棐几</t>
-  </si>
-  <si>
-    <t>镶平面</t>
-  </si>
-  <si>
-    <t>湘竹榻</t>
-  </si>
-  <si>
-    <t>小方</t>
-  </si>
-  <si>
-    <t>小木椅</t>
-  </si>
-  <si>
-    <t>小木作</t>
-  </si>
-  <si>
-    <t>小榻</t>
-  </si>
-  <si>
-    <t>楔钉榫</t>
-  </si>
-  <si>
-    <t>行障</t>
-  </si>
-  <si>
-    <t>绣墩</t>
-  </si>
-  <si>
-    <t>虚镶</t>
-  </si>
-  <si>
-    <t>栒虡</t>
-  </si>
-  <si>
-    <t>牙板</t>
-  </si>
-  <si>
-    <t>牙角</t>
-  </si>
-  <si>
-    <t>压片</t>
-  </si>
-  <si>
-    <t>压片钉</t>
-  </si>
-  <si>
-    <t>牙条</t>
-  </si>
-  <si>
-    <t>鸭尾子式</t>
-  </si>
-  <si>
-    <t>压纹刨花板</t>
-  </si>
-  <si>
-    <t>牙子</t>
-  </si>
-  <si>
-    <t>燕几</t>
-  </si>
-  <si>
-    <t>砚屏</t>
-  </si>
-  <si>
-    <t>燕尾榫</t>
-  </si>
-  <si>
-    <t>烟竹</t>
-  </si>
-  <si>
-    <t>样板</t>
-  </si>
-  <si>
-    <t>秧凳</t>
-  </si>
-  <si>
-    <t>阳线</t>
-  </si>
-  <si>
-    <t>药橱</t>
-  </si>
-  <si>
-    <t>摇竿</t>
-  </si>
-  <si>
-    <t>一封书桌</t>
-  </si>
-  <si>
-    <t>衣架</t>
-  </si>
-  <si>
-    <t>衣笼</t>
-  </si>
-  <si>
-    <t>移门</t>
-  </si>
-  <si>
-    <t>椅盘</t>
-  </si>
-  <si>
-    <t>椅圈</t>
-  </si>
-  <si>
-    <t>衣笥</t>
-  </si>
-  <si>
-    <t>一统碑</t>
-  </si>
-  <si>
-    <t>一腿三牙</t>
-  </si>
-  <si>
-    <t>衣箱</t>
-  </si>
-  <si>
-    <t>仪征出土西汉漆案</t>
-  </si>
-  <si>
-    <t>隐几</t>
-  </si>
-  <si>
-    <t>隐囊</t>
-  </si>
-  <si>
-    <t>银杏</t>
-  </si>
-  <si>
-    <t>迎面</t>
-  </si>
-  <si>
-    <t>瘿木</t>
-  </si>
-  <si>
-    <t>硬木家具</t>
-  </si>
-  <si>
-    <t>影条</t>
-  </si>
-  <si>
-    <t>硬质木纤维板</t>
-  </si>
-  <si>
-    <t>永石</t>
-  </si>
-  <si>
-    <t>柚木</t>
-  </si>
-  <si>
-    <t>油桌</t>
-  </si>
-  <si>
-    <t>郁架</t>
-  </si>
-  <si>
-    <t>榆木</t>
-  </si>
-  <si>
-    <t>圆棒榫</t>
-  </si>
-  <si>
-    <t>元代壁画的花几</t>
-  </si>
-  <si>
-    <t>元代壁画中的长方桌</t>
-  </si>
-  <si>
-    <t>圆角柜</t>
-  </si>
-  <si>
-    <t>圆盆架</t>
-  </si>
-  <si>
-    <t>圆椅</t>
-  </si>
-  <si>
-    <t>圆桌</t>
-  </si>
-  <si>
-    <t>月牙扶手</t>
-  </si>
-  <si>
-    <t>月牙桌</t>
-  </si>
-  <si>
-    <t>云木</t>
-  </si>
-  <si>
-    <t>云屏</t>
-  </si>
-  <si>
-    <t>栽榫</t>
-  </si>
-  <si>
-    <t>栽销</t>
-  </si>
-  <si>
-    <t>札榫</t>
-  </si>
-  <si>
-    <t>战国彩绘漆木床</t>
-  </si>
-  <si>
-    <t>战国雕花木几</t>
-  </si>
-  <si>
-    <t>战国金银彩绘漆案</t>
-  </si>
-  <si>
-    <t>战国漆木箱</t>
-  </si>
-  <si>
-    <t>战国铜方案</t>
-  </si>
-  <si>
-    <t>站牙</t>
-  </si>
-  <si>
-    <t>帐构</t>
-  </si>
-  <si>
-    <t>樟木箱</t>
-  </si>
-  <si>
-    <t>账桌</t>
-  </si>
-  <si>
-    <t>折尺</t>
-  </si>
-  <si>
-    <t>折叠单靠</t>
-  </si>
-  <si>
-    <t>折叠门</t>
-  </si>
-  <si>
-    <t>折叠式家具</t>
-  </si>
-  <si>
-    <t>折屏</t>
-  </si>
-  <si>
-    <t>枕首</t>
-  </si>
-  <si>
-    <t>枕头</t>
-  </si>
-  <si>
-    <t>整边材</t>
-  </si>
-  <si>
-    <t>整体衣柜</t>
-  </si>
-  <si>
-    <t>直背交椅</t>
-  </si>
-  <si>
-    <t>直角方榫</t>
-  </si>
-  <si>
-    <t>芝麻梗</t>
-  </si>
-  <si>
-    <t>中板</t>
-  </si>
-  <si>
-    <t>中方</t>
-  </si>
-  <si>
-    <t>中牌子</t>
-  </si>
-  <si>
-    <t>竹材烙花</t>
-  </si>
-  <si>
-    <t>竹材着色</t>
-  </si>
-  <si>
-    <t>竹钉</t>
-  </si>
-  <si>
-    <t>竹靠椅</t>
-  </si>
-  <si>
-    <t>竹面</t>
-  </si>
-  <si>
-    <t>竹爿浑</t>
-  </si>
-  <si>
-    <t>朱漆家具</t>
-  </si>
-  <si>
-    <t>竹青胶面</t>
-  </si>
-  <si>
-    <t>竹圈椅</t>
-  </si>
-  <si>
-    <t>竹踏凳</t>
-  </si>
-  <si>
-    <t>竹质刨花板</t>
-  </si>
-  <si>
-    <t>竹制家具</t>
-  </si>
-  <si>
-    <t>竹子</t>
-  </si>
-  <si>
-    <t>转屏</t>
-  </si>
-  <si>
-    <t>转椅</t>
-  </si>
-  <si>
-    <t>专诸禅椅</t>
-  </si>
-  <si>
-    <t>装板</t>
-  </si>
-  <si>
-    <t>装饰板</t>
-  </si>
-  <si>
-    <t>装饰部件</t>
-  </si>
-  <si>
-    <t>桌型结构</t>
-  </si>
-  <si>
-    <t>梓匠</t>
-  </si>
-  <si>
-    <t>子口</t>
-  </si>
-  <si>
-    <t>梓人</t>
-  </si>
-  <si>
-    <t>紫檀黑漆桌面画桌</t>
-  </si>
-  <si>
-    <t>紫檀灵芝纹画桌</t>
-  </si>
-  <si>
-    <t>紫檀木方凳</t>
-  </si>
-  <si>
-    <t>紫檀木四开光坐墩</t>
-  </si>
-  <si>
-    <t>紫檀有束腰带托泥荷花椅</t>
-  </si>
-  <si>
-    <t>棕绷</t>
-  </si>
-  <si>
-    <t>粽角榫</t>
-  </si>
-  <si>
-    <t>走马销</t>
-  </si>
-  <si>
-    <t>足凳</t>
-  </si>
-  <si>
-    <t>组合家具</t>
-  </si>
-  <si>
-    <t>坐墩</t>
-  </si>
-  <si>
-    <t>座柜</t>
-  </si>
-  <si>
-    <t>坐轿</t>
-  </si>
-  <si>
-    <t>柞木</t>
-  </si>
-  <si>
-    <t>座屏</t>
-  </si>
-  <si>
-    <t>锅</t>
-  </si>
-  <si>
-    <t>碗</t>
-  </si>
-  <si>
-    <t>瓢</t>
-  </si>
-  <si>
-    <t>盆</t>
-  </si>
-  <si>
-    <t>筷子</t>
-  </si>
-  <si>
-    <t>不粘锅</t>
-  </si>
-  <si>
-    <t>碟</t>
-  </si>
-  <si>
-    <t>餐刀</t>
-  </si>
-  <si>
-    <t>餐叉</t>
-  </si>
-  <si>
-    <t>茶杯</t>
-  </si>
-  <si>
-    <t>汤匙</t>
-  </si>
-  <si>
-    <t>杯子</t>
-  </si>
-  <si>
-    <t>盘子</t>
-  </si>
-  <si>
-    <t>陶瓷碗</t>
-  </si>
-  <si>
-    <t>平底锅</t>
-  </si>
-  <si>
-    <t>铅笔</t>
-  </si>
-  <si>
-    <t>钢笔</t>
-  </si>
-  <si>
-    <t>橡皮</t>
-  </si>
-  <si>
-    <t>胶带</t>
-  </si>
-  <si>
-    <t>文具盒</t>
-  </si>
-  <si>
-    <t>水彩笔</t>
-  </si>
-  <si>
-    <t>毛笔</t>
-  </si>
-  <si>
-    <t>直尺</t>
-  </si>
-  <si>
-    <t>三角尺</t>
-  </si>
-  <si>
-    <t>素描本</t>
-  </si>
-  <si>
-    <t>圆珠笔</t>
-  </si>
-  <si>
-    <t>涂改液</t>
-  </si>
-  <si>
-    <t>涂改带</t>
-  </si>
-  <si>
-    <t>书包</t>
-  </si>
-  <si>
-    <t>图画本</t>
-  </si>
-  <si>
-    <t>方格本</t>
-  </si>
-  <si>
-    <t>田字本</t>
-  </si>
-  <si>
-    <t>蜡笔</t>
-  </si>
-  <si>
-    <t>彩笔</t>
-  </si>
-  <si>
-    <t>记号笔</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>电脑</t>
-  </si>
-  <si>
-    <t>油烟机</t>
-  </si>
-  <si>
-    <t>双电机</t>
-  </si>
-  <si>
-    <t>冰箱</t>
-  </si>
-  <si>
-    <t>电磁炉</t>
-  </si>
-  <si>
-    <t>微波炉</t>
-  </si>
-  <si>
-    <t>电饭锅</t>
-  </si>
-  <si>
-    <t>电热毯</t>
-  </si>
-  <si>
-    <t>电热水壶</t>
-  </si>
-  <si>
-    <t>电熨斗</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>摩托车</t>
-  </si>
-  <si>
-    <t>三轮车</t>
-  </si>
-  <si>
-    <t>自行车</t>
-  </si>
-  <si>
-    <t>电动车</t>
-  </si>
-  <si>
-    <t>轮船</t>
-  </si>
-  <si>
-    <t>渔船</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>客机</t>
-  </si>
-  <si>
-    <t>直升飞机</t>
-  </si>
-  <si>
-    <t>火车</t>
-  </si>
-  <si>
-    <t>公共汽车</t>
-  </si>
-  <si>
-    <t>轿车</t>
-  </si>
-  <si>
-    <t>记者</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>校对员</t>
-  </si>
-  <si>
-    <t>播音员</t>
-  </si>
-  <si>
-    <t>主持人</t>
-  </si>
-  <si>
-    <t>翻译</t>
-  </si>
-  <si>
-    <t>图书管理员</t>
-  </si>
-  <si>
-    <t>科学家</t>
-  </si>
-  <si>
-    <t>售货员</t>
-  </si>
-  <si>
-    <t>服务员</t>
-  </si>
-  <si>
-    <t>仓库管理员</t>
-  </si>
-  <si>
-    <t>导游</t>
-  </si>
-  <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>护士</t>
-  </si>
-  <si>
-    <t>麻醉师</t>
-  </si>
-  <si>
-    <t>医师</t>
-  </si>
-  <si>
-    <t>摄影师</t>
-  </si>
-  <si>
-    <t>美容师</t>
-  </si>
-  <si>
-    <t>美发师</t>
-  </si>
-  <si>
-    <t>理发师</t>
-  </si>
-  <si>
-    <t>环卫工</t>
-  </si>
-  <si>
-    <t>保育员</t>
-  </si>
-  <si>
-    <t>育婴员</t>
-  </si>
-  <si>
-    <t>营业员</t>
-  </si>
-  <si>
-    <t>快递员</t>
-  </si>
-  <si>
-    <t>话务员</t>
-  </si>
-  <si>
-    <t>厨师</t>
-  </si>
-  <si>
-    <t>营养师</t>
-  </si>
-  <si>
-    <t>展览讲解员</t>
-  </si>
-  <si>
-    <t>解说员</t>
-  </si>
-  <si>
-    <t>农民</t>
-  </si>
-  <si>
-    <t>饲养员</t>
-  </si>
-  <si>
-    <t>兽医</t>
-  </si>
-  <si>
-    <t>项目经理</t>
-  </si>
-  <si>
-    <t>产品经理</t>
-  </si>
-  <si>
-    <t>施工员</t>
-  </si>
-  <si>
-    <t>安全员</t>
-  </si>
-  <si>
-    <t>程序员</t>
-  </si>
-  <si>
-    <t>司机</t>
-  </si>
-  <si>
-    <t>教师</t>
-  </si>
-  <si>
-    <t>教授</t>
-  </si>
-  <si>
-    <t>编剧</t>
-  </si>
-  <si>
-    <t>导演</t>
-  </si>
-  <si>
-    <t>演员</t>
-  </si>
-  <si>
-    <t>会计</t>
-  </si>
-  <si>
-    <t>审计</t>
-  </si>
-  <si>
-    <t>律师</t>
-  </si>
-  <si>
-    <t>法官</t>
-  </si>
-  <si>
-    <t>检察官</t>
-  </si>
-  <si>
-    <t>公证员</t>
-  </si>
-  <si>
-    <t>书记员</t>
-  </si>
-  <si>
-    <t>保安</t>
-  </si>
-  <si>
-    <t>消防员</t>
-  </si>
-  <si>
-    <t>飞行员</t>
-  </si>
-  <si>
-    <t>教练员</t>
-  </si>
-  <si>
-    <t>裁判员</t>
-  </si>
-  <si>
-    <t>运动员</t>
-  </si>
-  <si>
-    <t>经纪人</t>
-  </si>
-  <si>
-    <t>设计师</t>
-  </si>
-  <si>
-    <t>调香师</t>
-  </si>
-  <si>
-    <t>咖啡师</t>
-  </si>
-  <si>
-    <t>美甲师</t>
-  </si>
-  <si>
-    <t>阿爸</t>
-  </si>
-  <si>
-    <t>阿伯</t>
-  </si>
-  <si>
-    <t>阿爹</t>
-  </si>
-  <si>
-    <t>阿妈</t>
-  </si>
-  <si>
-    <t>阿娘</t>
-  </si>
-  <si>
-    <t>阿婶</t>
-  </si>
-  <si>
-    <t>阿叔</t>
-  </si>
-  <si>
-    <t>阿姨</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-  </si>
-  <si>
-    <t>表弟</t>
-  </si>
-  <si>
-    <t>表哥</t>
-  </si>
-  <si>
-    <t>表姑</t>
-  </si>
-  <si>
-    <t>表姐</t>
-  </si>
-  <si>
-    <t>表妹</t>
-  </si>
-  <si>
-    <t>表叔</t>
-  </si>
-  <si>
-    <t>表兄弟</t>
-  </si>
-  <si>
-    <t>表侄</t>
-  </si>
-  <si>
-    <t>表姊妹</t>
-  </si>
-  <si>
-    <t>伯伯</t>
-  </si>
-  <si>
-    <t>伯父</t>
-  </si>
-  <si>
-    <t>伯母</t>
-  </si>
-  <si>
-    <t>伯叔</t>
-  </si>
-  <si>
-    <t>曾外祖父</t>
-  </si>
-  <si>
-    <t>曾外祖母</t>
-  </si>
-  <si>
-    <t>大伯</t>
-  </si>
-  <si>
-    <t>大姑</t>
-  </si>
-  <si>
-    <t>大姑子</t>
-  </si>
-  <si>
-    <t>大舅子</t>
-  </si>
-  <si>
-    <t>大妈</t>
-  </si>
-  <si>
-    <t>大娘</t>
-  </si>
-  <si>
-    <t>大爷</t>
-  </si>
-  <si>
-    <t>大姨</t>
-  </si>
-  <si>
-    <t>弟弟</t>
-  </si>
-  <si>
-    <t>弟妇</t>
-  </si>
-  <si>
-    <t>弟妹</t>
-  </si>
-  <si>
-    <t>弟媳</t>
-  </si>
-  <si>
-    <t>爹地</t>
-  </si>
-  <si>
-    <t>二弟</t>
-  </si>
-  <si>
-    <t>儿媳</t>
-  </si>
-  <si>
-    <t>儿媳妇</t>
-  </si>
-  <si>
-    <t>儿子</t>
-  </si>
-  <si>
-    <t>父亲</t>
-  </si>
-  <si>
-    <t>干爹</t>
-  </si>
-  <si>
-    <t>干妈</t>
-  </si>
-  <si>
-    <t>干亲家</t>
-  </si>
-  <si>
-    <t>高祖父</t>
-  </si>
-  <si>
-    <t>高祖母</t>
-  </si>
-  <si>
-    <t>哥哥</t>
-  </si>
-  <si>
-    <t>公公</t>
-  </si>
-  <si>
-    <t>姑夫</t>
-  </si>
-  <si>
-    <t>姑姑</t>
-  </si>
-  <si>
-    <t>姑母</t>
-  </si>
-  <si>
-    <t>姑奶奶</t>
-  </si>
-  <si>
-    <t>姑爷</t>
-  </si>
-  <si>
-    <t>继父</t>
-  </si>
-  <si>
-    <t>继母</t>
-  </si>
-  <si>
-    <t>继娘</t>
-  </si>
-  <si>
-    <t>继爷</t>
-  </si>
-  <si>
-    <t>姐夫</t>
-  </si>
-  <si>
-    <t>姐姐</t>
-  </si>
-  <si>
-    <t>襟弟</t>
-  </si>
-  <si>
-    <t>襟兄</t>
-  </si>
-  <si>
-    <t>妗子</t>
-  </si>
-  <si>
-    <t>YF</t>
-  </si>
-  <si>
-    <t>舅父</t>
-  </si>
-  <si>
-    <t>舅舅</t>
-  </si>
-  <si>
-    <t>舅姥</t>
-  </si>
-  <si>
-    <t>舅妈</t>
-  </si>
-  <si>
-    <t>舅母</t>
-  </si>
-  <si>
-    <t>舅母子</t>
-  </si>
-  <si>
-    <t>老弟</t>
-  </si>
-  <si>
-    <t>老哥</t>
-  </si>
-  <si>
-    <t>老公</t>
-  </si>
-  <si>
-    <t>老姐</t>
-  </si>
-  <si>
-    <t>姥姥</t>
-  </si>
-  <si>
-    <t>老妹</t>
-  </si>
-  <si>
-    <t>老奶奶</t>
-  </si>
-  <si>
-    <t>老婆</t>
-  </si>
-  <si>
-    <t>老挑</t>
-  </si>
-  <si>
-    <t>姥爷</t>
-  </si>
-  <si>
-    <t>老爷</t>
-  </si>
-  <si>
-    <t>老爷爷</t>
-  </si>
-  <si>
-    <t>连襟</t>
-  </si>
-  <si>
-    <t>妈妈</t>
-  </si>
-  <si>
-    <t>妈咪</t>
-  </si>
-  <si>
-    <t>妹夫</t>
-  </si>
-  <si>
-    <t>妹妹</t>
-  </si>
-  <si>
-    <t>母亲</t>
-  </si>
-  <si>
-    <t>奶奶</t>
-  </si>
-  <si>
-    <t>囝囝</t>
-  </si>
-  <si>
-    <t>囡囡</t>
-  </si>
-  <si>
-    <t>内弟</t>
-  </si>
-  <si>
-    <t>内兄</t>
-  </si>
-  <si>
-    <t>娘舅</t>
-  </si>
-  <si>
-    <t>女儿</t>
-  </si>
-  <si>
-    <t>女婿</t>
-  </si>
-  <si>
-    <t>旁系</t>
-  </si>
-  <si>
-    <t>婆婆</t>
-  </si>
-  <si>
-    <t>妻妹子</t>
-  </si>
-  <si>
-    <t>妻子</t>
-  </si>
-  <si>
-    <t>亲人</t>
-  </si>
-  <si>
-    <t>三弟</t>
-  </si>
-  <si>
-    <t>嫂子</t>
-  </si>
-  <si>
-    <t>婶母</t>
-  </si>
-  <si>
-    <t>婶婶</t>
-  </si>
-  <si>
-    <t>婶子</t>
-  </si>
-  <si>
-    <t>叔父</t>
-  </si>
-  <si>
-    <t>叔叔</t>
-  </si>
-  <si>
-    <t>叔丈母</t>
-  </si>
-  <si>
-    <t>叔丈人</t>
-  </si>
-  <si>
-    <t>孙女</t>
-  </si>
-  <si>
-    <t>孙女婿</t>
-  </si>
-  <si>
-    <t>孙媳妇</t>
-  </si>
-  <si>
-    <t>堂弟</t>
-  </si>
-  <si>
-    <t>堂哥</t>
-  </si>
-  <si>
-    <t>堂姐</t>
-  </si>
-  <si>
-    <t>堂妹</t>
-  </si>
-  <si>
-    <t>堂兄弟</t>
-  </si>
-  <si>
-    <t>堂姊妹</t>
-  </si>
-  <si>
-    <t>外公</t>
-  </si>
-  <si>
-    <t>外婆</t>
-  </si>
-  <si>
-    <t>外甥</t>
-  </si>
-  <si>
-    <t>外甥女</t>
-  </si>
-  <si>
-    <t>外甥女婿</t>
-  </si>
-  <si>
-    <t>外甥媳妇</t>
-  </si>
-  <si>
-    <t>外孙</t>
-  </si>
-  <si>
-    <t>外孙女</t>
-  </si>
-  <si>
-    <t>外祖父</t>
-  </si>
-  <si>
-    <t>外祖母</t>
-  </si>
-  <si>
-    <t>媳妇</t>
-  </si>
-  <si>
-    <t>小姑</t>
-  </si>
-  <si>
-    <t>小姑子</t>
-  </si>
-  <si>
-    <t>小舅子</t>
-  </si>
-  <si>
-    <t>小叔</t>
-  </si>
-  <si>
-    <t>小姨</t>
-  </si>
-  <si>
-    <t>小姨妹</t>
-  </si>
-  <si>
-    <t>兄弟</t>
-  </si>
-  <si>
-    <t>玄孙</t>
-  </si>
-  <si>
-    <t>血老表</t>
-  </si>
-  <si>
-    <t>养父</t>
-  </si>
-  <si>
-    <t>养母</t>
-  </si>
-  <si>
-    <t>幺爸</t>
-  </si>
-  <si>
-    <t>幺婶</t>
-  </si>
-  <si>
-    <t>爷叔</t>
-  </si>
-  <si>
-    <t>爷爷</t>
-  </si>
-  <si>
-    <t>姨夫</t>
-  </si>
-  <si>
-    <t>姨公</t>
-  </si>
-  <si>
-    <t>姨姐</t>
-  </si>
-  <si>
-    <t>姨老表</t>
-  </si>
-  <si>
-    <t>姨妈</t>
-  </si>
-  <si>
-    <t>姨妹</t>
-  </si>
-  <si>
-    <t>姨妹夫</t>
-  </si>
-  <si>
-    <t>姨母</t>
-  </si>
-  <si>
-    <t>姨叔</t>
-  </si>
-  <si>
-    <t>姻亲</t>
-  </si>
-  <si>
-    <t>幼弟</t>
-  </si>
-  <si>
-    <t>幼妹</t>
-  </si>
-  <si>
-    <t>岳父</t>
-  </si>
-  <si>
-    <t>岳母</t>
-  </si>
-  <si>
-    <t>曾孙</t>
-  </si>
-  <si>
-    <t>曾祖父</t>
-  </si>
-  <si>
-    <t>曾祖母</t>
-  </si>
-  <si>
-    <t>丈夫</t>
-  </si>
-  <si>
-    <t>丈母娘</t>
-  </si>
-  <si>
-    <t>丈人</t>
-  </si>
-  <si>
-    <t>长兄</t>
-  </si>
-  <si>
-    <t>长姊</t>
-  </si>
-  <si>
-    <t>侄女</t>
-  </si>
-  <si>
-    <t>侄女婿</t>
-  </si>
-  <si>
-    <t>侄孙</t>
-  </si>
-  <si>
-    <t>侄孙女</t>
-  </si>
-  <si>
-    <t>侄媳妇</t>
-  </si>
-  <si>
-    <t>侄子</t>
-  </si>
-  <si>
-    <t>妯娌</t>
-  </si>
-  <si>
-    <t>姊夫</t>
-  </si>
-  <si>
-    <t>祖父</t>
-  </si>
-  <si>
-    <t>祖姑母</t>
-  </si>
-  <si>
-    <t>祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -7995,6 +7989,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -8041,7 +8041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8056,6 +8056,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8331,14 +8334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2734"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2708" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1146" sqref="O1146"/>
+      <selection pane="bottomRight" activeCell="A2734" sqref="A2734:XFD2734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -25747,16 +25750,16 @@
       </c>
     </row>
     <row r="2167" spans="1:18">
-      <c r="A2167" s="1" t="s">
-        <v>2087</v>
+      <c r="A2167" s="5" t="s">
+        <v>2648</v>
       </c>
       <c r="R2167" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2168" spans="1:18">
-      <c r="A2168" s="1" t="s">
-        <v>2088</v>
+      <c r="A2168" s="5" t="s">
+        <v>2649</v>
       </c>
       <c r="R2168" s="1" t="s">
         <v>25</v>
@@ -25764,7 +25767,7 @@
     </row>
     <row r="2169" spans="1:18">
       <c r="A2169" s="1" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="R2169" s="1" t="s">
         <v>25</v>
@@ -25772,7 +25775,7 @@
     </row>
     <row r="2170" spans="1:18">
       <c r="A2170" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="R2170" s="1" t="s">
         <v>25</v>
@@ -25780,7 +25783,7 @@
     </row>
     <row r="2171" spans="1:18">
       <c r="A2171" s="1" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="R2171" s="1" t="s">
         <v>25</v>
@@ -25788,7 +25791,7 @@
     </row>
     <row r="2172" spans="1:18">
       <c r="A2172" s="1" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="R2172" s="1" t="s">
         <v>25</v>
@@ -25796,7 +25799,7 @@
     </row>
     <row r="2173" spans="1:18">
       <c r="A2173" s="1" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="R2173" s="1" t="s">
         <v>25</v>
@@ -25804,7 +25807,7 @@
     </row>
     <row r="2174" spans="1:18">
       <c r="A2174" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="R2174" s="1" t="s">
         <v>25</v>
@@ -25812,7 +25815,7 @@
     </row>
     <row r="2175" spans="1:18">
       <c r="A2175" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="R2175" s="1" t="s">
         <v>25</v>
@@ -25828,7 +25831,7 @@
     </row>
     <row r="2177" spans="1:18">
       <c r="A2177" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="R2177" s="1" t="s">
         <v>25</v>
@@ -25836,7 +25839,7 @@
     </row>
     <row r="2178" spans="1:18">
       <c r="A2178" s="1" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="R2178" s="1" t="s">
         <v>25</v>
@@ -25844,7 +25847,7 @@
     </row>
     <row r="2179" spans="1:18">
       <c r="A2179" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="R2179" s="1" t="s">
         <v>25</v>
@@ -25852,7 +25855,7 @@
     </row>
     <row r="2180" spans="1:18">
       <c r="A2180" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="R2180" s="1" t="s">
         <v>25</v>
@@ -25860,7 +25863,7 @@
     </row>
     <row r="2181" spans="1:18">
       <c r="A2181" s="1" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="R2181" s="1" t="s">
         <v>25</v>
@@ -25868,7 +25871,7 @@
     </row>
     <row r="2182" spans="1:18">
       <c r="A2182" s="1" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="R2182" s="1" t="s">
         <v>25</v>
@@ -25876,7 +25879,7 @@
     </row>
     <row r="2183" spans="1:18">
       <c r="A2183" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="R2183" s="1" t="s">
         <v>25</v>
@@ -25884,7 +25887,7 @@
     </row>
     <row r="2184" spans="1:18">
       <c r="A2184" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="R2184" s="1" t="s">
         <v>25</v>
@@ -25892,7 +25895,7 @@
     </row>
     <row r="2185" spans="1:18">
       <c r="A2185" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="R2185" s="1" t="s">
         <v>25</v>
@@ -25900,7 +25903,7 @@
     </row>
     <row r="2186" spans="1:18">
       <c r="A2186" s="1" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="R2186" s="1" t="s">
         <v>25</v>
@@ -25908,7 +25911,7 @@
     </row>
     <row r="2187" spans="1:18">
       <c r="A2187" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="R2187" s="1" t="s">
         <v>25</v>
@@ -25916,7 +25919,7 @@
     </row>
     <row r="2188" spans="1:18">
       <c r="A2188" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="R2188" s="1" t="s">
         <v>25</v>
@@ -25924,7 +25927,7 @@
     </row>
     <row r="2189" spans="1:18">
       <c r="A2189" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="R2189" s="1" t="s">
         <v>25</v>
@@ -25932,7 +25935,7 @@
     </row>
     <row r="2190" spans="1:18">
       <c r="A2190" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="R2190" s="1" t="s">
         <v>25</v>
@@ -25940,7 +25943,7 @@
     </row>
     <row r="2191" spans="1:18">
       <c r="A2191" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="R2191" s="1" t="s">
         <v>25</v>
@@ -25948,7 +25951,7 @@
     </row>
     <row r="2192" spans="1:18">
       <c r="A2192" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="R2192" s="1" t="s">
         <v>25</v>
@@ -25956,7 +25959,7 @@
     </row>
     <row r="2193" spans="1:18">
       <c r="A2193" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="R2193" s="1" t="s">
         <v>25</v>
@@ -25964,7 +25967,7 @@
     </row>
     <row r="2194" spans="1:18">
       <c r="A2194" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="R2194" s="1" t="s">
         <v>25</v>
@@ -25972,7 +25975,7 @@
     </row>
     <row r="2195" spans="1:18">
       <c r="A2195" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="R2195" s="1" t="s">
         <v>25</v>
@@ -25980,7 +25983,7 @@
     </row>
     <row r="2196" spans="1:18">
       <c r="A2196" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="R2196" s="1" t="s">
         <v>25</v>
@@ -25988,7 +25991,7 @@
     </row>
     <row r="2197" spans="1:18">
       <c r="A2197" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="R2197" s="1" t="s">
         <v>25</v>
@@ -25996,7 +25999,7 @@
     </row>
     <row r="2198" spans="1:18">
       <c r="A2198" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="R2198" s="1" t="s">
         <v>25</v>
@@ -26004,7 +26007,7 @@
     </row>
     <row r="2199" spans="1:18">
       <c r="A2199" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="R2199" s="1" t="s">
         <v>25</v>
@@ -26012,7 +26015,7 @@
     </row>
     <row r="2200" spans="1:18">
       <c r="A2200" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="R2200" s="1" t="s">
         <v>25</v>
@@ -26020,7 +26023,7 @@
     </row>
     <row r="2201" spans="1:18">
       <c r="A2201" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="R2201" s="1" t="s">
         <v>25</v>
@@ -26028,7 +26031,7 @@
     </row>
     <row r="2202" spans="1:18">
       <c r="A2202" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="R2202" s="1" t="s">
         <v>25</v>
@@ -26036,7 +26039,7 @@
     </row>
     <row r="2203" spans="1:18">
       <c r="A2203" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="R2203" s="1" t="s">
         <v>25</v>
@@ -26044,7 +26047,7 @@
     </row>
     <row r="2204" spans="1:18">
       <c r="A2204" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="R2204" s="1" t="s">
         <v>25</v>
@@ -26052,7 +26055,7 @@
     </row>
     <row r="2205" spans="1:18">
       <c r="A2205" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="R2205" s="1" t="s">
         <v>25</v>
@@ -26060,7 +26063,7 @@
     </row>
     <row r="2206" spans="1:18">
       <c r="A2206" s="1" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="R2206" s="1" t="s">
         <v>25</v>
@@ -26068,7 +26071,7 @@
     </row>
     <row r="2207" spans="1:18">
       <c r="A2207" s="1" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="R2207" s="1" t="s">
         <v>25</v>
@@ -26076,7 +26079,7 @@
     </row>
     <row r="2208" spans="1:18">
       <c r="A2208" s="1" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="R2208" s="1" t="s">
         <v>25</v>
@@ -26084,7 +26087,7 @@
     </row>
     <row r="2209" spans="1:18">
       <c r="A2209" s="1" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="R2209" s="1" t="s">
         <v>25</v>
@@ -26092,7 +26095,7 @@
     </row>
     <row r="2210" spans="1:18">
       <c r="A2210" s="1" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="R2210" s="1" t="s">
         <v>25</v>
@@ -26100,7 +26103,7 @@
     </row>
     <row r="2211" spans="1:18">
       <c r="A2211" s="1" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="R2211" s="1" t="s">
         <v>25</v>
@@ -26108,7 +26111,7 @@
     </row>
     <row r="2212" spans="1:18">
       <c r="A2212" s="1" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="R2212" s="1" t="s">
         <v>25</v>
@@ -26116,7 +26119,7 @@
     </row>
     <row r="2213" spans="1:18">
       <c r="A2213" s="1" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="R2213" s="1" t="s">
         <v>25</v>
@@ -26124,7 +26127,7 @@
     </row>
     <row r="2214" spans="1:18">
       <c r="A2214" s="1" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="R2214" s="1" t="s">
         <v>25</v>
@@ -26132,7 +26135,7 @@
     </row>
     <row r="2215" spans="1:18">
       <c r="A2215" s="1" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="R2215" s="1" t="s">
         <v>25</v>
@@ -26140,7 +26143,7 @@
     </row>
     <row r="2216" spans="1:18">
       <c r="A2216" s="1" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="R2216" s="1" t="s">
         <v>25</v>
@@ -26148,7 +26151,7 @@
     </row>
     <row r="2217" spans="1:18">
       <c r="A2217" s="1" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="R2217" s="1" t="s">
         <v>25</v>
@@ -26156,7 +26159,7 @@
     </row>
     <row r="2218" spans="1:18">
       <c r="A2218" s="1" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="R2218" s="1" t="s">
         <v>25</v>
@@ -26164,7 +26167,7 @@
     </row>
     <row r="2219" spans="1:18">
       <c r="A2219" s="1" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="R2219" s="1" t="s">
         <v>25</v>
@@ -26172,7 +26175,7 @@
     </row>
     <row r="2220" spans="1:18">
       <c r="A2220" s="1" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="R2220" s="1" t="s">
         <v>25</v>
@@ -26180,7 +26183,7 @@
     </row>
     <row r="2221" spans="1:18">
       <c r="A2221" s="1" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="R2221" s="1" t="s">
         <v>25</v>
@@ -26188,7 +26191,7 @@
     </row>
     <row r="2222" spans="1:18">
       <c r="A2222" s="1" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="R2222" s="1" t="s">
         <v>25</v>
@@ -26196,7 +26199,7 @@
     </row>
     <row r="2223" spans="1:18">
       <c r="A2223" s="1" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="R2223" s="1" t="s">
         <v>25</v>
@@ -26204,7 +26207,7 @@
     </row>
     <row r="2224" spans="1:18">
       <c r="A2224" s="1" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="R2224" s="1" t="s">
         <v>25</v>
@@ -26212,7 +26215,7 @@
     </row>
     <row r="2225" spans="1:18">
       <c r="A2225" s="1" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="R2225" s="1" t="s">
         <v>25</v>
@@ -26220,7 +26223,7 @@
     </row>
     <row r="2226" spans="1:18">
       <c r="A2226" s="1" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="R2226" s="1" t="s">
         <v>25</v>
@@ -26228,7 +26231,7 @@
     </row>
     <row r="2227" spans="1:18">
       <c r="A2227" s="1" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="R2227" s="1" t="s">
         <v>25</v>
@@ -26236,7 +26239,7 @@
     </row>
     <row r="2228" spans="1:18">
       <c r="A2228" s="1" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="R2228" s="1" t="s">
         <v>25</v>
@@ -26244,7 +26247,7 @@
     </row>
     <row r="2229" spans="1:18">
       <c r="A2229" s="1" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="R2229" s="1" t="s">
         <v>25</v>
@@ -26252,7 +26255,7 @@
     </row>
     <row r="2230" spans="1:18">
       <c r="A2230" s="1" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="R2230" s="1" t="s">
         <v>25</v>
@@ -26260,7 +26263,7 @@
     </row>
     <row r="2231" spans="1:18">
       <c r="A2231" s="1" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="R2231" s="1" t="s">
         <v>25</v>
@@ -26268,7 +26271,7 @@
     </row>
     <row r="2232" spans="1:18">
       <c r="A2232" s="1" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="R2232" s="1" t="s">
         <v>25</v>
@@ -26276,7 +26279,7 @@
     </row>
     <row r="2233" spans="1:18">
       <c r="A2233" s="1" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="R2233" s="1" t="s">
         <v>25</v>
@@ -26284,7 +26287,7 @@
     </row>
     <row r="2234" spans="1:18">
       <c r="A2234" s="1" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="R2234" s="1" t="s">
         <v>25</v>
@@ -26292,7 +26295,7 @@
     </row>
     <row r="2235" spans="1:18">
       <c r="A2235" s="1" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="R2235" s="1" t="s">
         <v>25</v>
@@ -26300,7 +26303,7 @@
     </row>
     <row r="2236" spans="1:18">
       <c r="A2236" s="1" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="R2236" s="1" t="s">
         <v>25</v>
@@ -26308,7 +26311,7 @@
     </row>
     <row r="2237" spans="1:18">
       <c r="A2237" s="1" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="R2237" s="1" t="s">
         <v>25</v>
@@ -26316,7 +26319,7 @@
     </row>
     <row r="2238" spans="1:18">
       <c r="A2238" s="1" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="R2238" s="1" t="s">
         <v>25</v>
@@ -26324,7 +26327,7 @@
     </row>
     <row r="2239" spans="1:18">
       <c r="A2239" s="1" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="R2239" s="1" t="s">
         <v>25</v>
@@ -26332,7 +26335,7 @@
     </row>
     <row r="2240" spans="1:18">
       <c r="A2240" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="R2240" s="1" t="s">
         <v>25</v>
@@ -26340,7 +26343,7 @@
     </row>
     <row r="2241" spans="1:18">
       <c r="A2241" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="R2241" s="1" t="s">
         <v>25</v>
@@ -26348,7 +26351,7 @@
     </row>
     <row r="2242" spans="1:18">
       <c r="A2242" s="1" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="R2242" s="1" t="s">
         <v>25</v>
@@ -26356,7 +26359,7 @@
     </row>
     <row r="2243" spans="1:18">
       <c r="A2243" s="1" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="R2243" s="1" t="s">
         <v>25</v>
@@ -26364,7 +26367,7 @@
     </row>
     <row r="2244" spans="1:18">
       <c r="A2244" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="R2244" s="1" t="s">
         <v>25</v>
@@ -26372,7 +26375,7 @@
     </row>
     <row r="2245" spans="1:18">
       <c r="A2245" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="R2245" s="1" t="s">
         <v>25</v>
@@ -26380,7 +26383,7 @@
     </row>
     <row r="2246" spans="1:18">
       <c r="A2246" s="1" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="R2246" s="1" t="s">
         <v>25</v>
@@ -26388,7 +26391,7 @@
     </row>
     <row r="2247" spans="1:18">
       <c r="A2247" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="R2247" s="1" t="s">
         <v>25</v>
@@ -26396,7 +26399,7 @@
     </row>
     <row r="2248" spans="1:18">
       <c r="A2248" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="R2248" s="1" t="s">
         <v>25</v>
@@ -26404,7 +26407,7 @@
     </row>
     <row r="2249" spans="1:18">
       <c r="A2249" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="R2249" s="1" t="s">
         <v>25</v>
@@ -26412,7 +26415,7 @@
     </row>
     <row r="2250" spans="1:18">
       <c r="A2250" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="R2250" s="1" t="s">
         <v>25</v>
@@ -26420,7 +26423,7 @@
     </row>
     <row r="2251" spans="1:18">
       <c r="A2251" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="R2251" s="1" t="s">
         <v>25</v>
@@ -26428,7 +26431,7 @@
     </row>
     <row r="2252" spans="1:18">
       <c r="A2252" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="R2252" s="1" t="s">
         <v>25</v>
@@ -26436,7 +26439,7 @@
     </row>
     <row r="2253" spans="1:18">
       <c r="A2253" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="R2253" s="1" t="s">
         <v>25</v>
@@ -26444,7 +26447,7 @@
     </row>
     <row r="2254" spans="1:18">
       <c r="A2254" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="R2254" s="1" t="s">
         <v>25</v>
@@ -26452,7 +26455,7 @@
     </row>
     <row r="2255" spans="1:18">
       <c r="A2255" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="R2255" s="1" t="s">
         <v>25</v>
@@ -26460,7 +26463,7 @@
     </row>
     <row r="2256" spans="1:18">
       <c r="A2256" s="1" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="R2256" s="1" t="s">
         <v>25</v>
@@ -26468,7 +26471,7 @@
     </row>
     <row r="2257" spans="1:18">
       <c r="A2257" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="R2257" s="1" t="s">
         <v>25</v>
@@ -26476,7 +26479,7 @@
     </row>
     <row r="2258" spans="1:18">
       <c r="A2258" s="1" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="R2258" s="1" t="s">
         <v>25</v>
@@ -26484,7 +26487,7 @@
     </row>
     <row r="2259" spans="1:18">
       <c r="A2259" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="R2259" s="1" t="s">
         <v>25</v>
@@ -26492,7 +26495,7 @@
     </row>
     <row r="2260" spans="1:18">
       <c r="A2260" s="1" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="R2260" s="1" t="s">
         <v>25</v>
@@ -26500,7 +26503,7 @@
     </row>
     <row r="2261" spans="1:18">
       <c r="A2261" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="R2261" s="1" t="s">
         <v>25</v>
@@ -26508,7 +26511,7 @@
     </row>
     <row r="2262" spans="1:18">
       <c r="A2262" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="R2262" s="1" t="s">
         <v>25</v>
@@ -26516,7 +26519,7 @@
     </row>
     <row r="2263" spans="1:18">
       <c r="A2263" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="R2263" s="1" t="s">
         <v>25</v>
@@ -26524,7 +26527,7 @@
     </row>
     <row r="2264" spans="1:18">
       <c r="A2264" s="1" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="R2264" s="1" t="s">
         <v>25</v>
@@ -26532,7 +26535,7 @@
     </row>
     <row r="2265" spans="1:18">
       <c r="A2265" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="R2265" s="1" t="s">
         <v>25</v>
@@ -26540,7 +26543,7 @@
     </row>
     <row r="2266" spans="1:18">
       <c r="A2266" s="1" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="R2266" s="1" t="s">
         <v>25</v>
@@ -26548,7 +26551,7 @@
     </row>
     <row r="2267" spans="1:18">
       <c r="A2267" s="1" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="R2267" s="1" t="s">
         <v>25</v>
@@ -26556,7 +26559,7 @@
     </row>
     <row r="2268" spans="1:18">
       <c r="A2268" s="1" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="R2268" s="1" t="s">
         <v>25</v>
@@ -26564,7 +26567,7 @@
     </row>
     <row r="2269" spans="1:18">
       <c r="A2269" s="1" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="R2269" s="1" t="s">
         <v>25</v>
@@ -26572,7 +26575,7 @@
     </row>
     <row r="2270" spans="1:18">
       <c r="A2270" s="1" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="R2270" s="1" t="s">
         <v>25</v>
@@ -26580,7 +26583,7 @@
     </row>
     <row r="2271" spans="1:18">
       <c r="A2271" s="1" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="R2271" s="1" t="s">
         <v>25</v>
@@ -26588,7 +26591,7 @@
     </row>
     <row r="2272" spans="1:18">
       <c r="A2272" s="1" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="R2272" s="1" t="s">
         <v>25</v>
@@ -26596,7 +26599,7 @@
     </row>
     <row r="2273" spans="1:18">
       <c r="A2273" s="1" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="R2273" s="1" t="s">
         <v>25</v>
@@ -26604,7 +26607,7 @@
     </row>
     <row r="2274" spans="1:18">
       <c r="A2274" s="1" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="R2274" s="1" t="s">
         <v>25</v>
@@ -26612,7 +26615,7 @@
     </row>
     <row r="2275" spans="1:18">
       <c r="A2275" s="1" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="R2275" s="1" t="s">
         <v>25</v>
@@ -26620,7 +26623,7 @@
     </row>
     <row r="2276" spans="1:18">
       <c r="A2276" s="1" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="R2276" s="1" t="s">
         <v>25</v>
@@ -26628,7 +26631,7 @@
     </row>
     <row r="2277" spans="1:18">
       <c r="A2277" s="1" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="R2277" s="1" t="s">
         <v>25</v>
@@ -26636,7 +26639,7 @@
     </row>
     <row r="2278" spans="1:18">
       <c r="A2278" s="1" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="R2278" s="1" t="s">
         <v>25</v>
@@ -26644,7 +26647,7 @@
     </row>
     <row r="2279" spans="1:18">
       <c r="A2279" s="1" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="R2279" s="1" t="s">
         <v>25</v>
@@ -26652,7 +26655,7 @@
     </row>
     <row r="2280" spans="1:18">
       <c r="A2280" s="1" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="R2280" s="1" t="s">
         <v>25</v>
@@ -26660,7 +26663,7 @@
     </row>
     <row r="2281" spans="1:18">
       <c r="A2281" s="1" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="R2281" s="1" t="s">
         <v>25</v>
@@ -26668,7 +26671,7 @@
     </row>
     <row r="2282" spans="1:18">
       <c r="A2282" s="1" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="R2282" s="1" t="s">
         <v>25</v>
@@ -26676,7 +26679,7 @@
     </row>
     <row r="2283" spans="1:18">
       <c r="A2283" s="1" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="R2283" s="1" t="s">
         <v>25</v>
@@ -26684,7 +26687,7 @@
     </row>
     <row r="2284" spans="1:18">
       <c r="A2284" s="1" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="R2284" s="1" t="s">
         <v>25</v>
@@ -26692,7 +26695,7 @@
     </row>
     <row r="2285" spans="1:18">
       <c r="A2285" s="1" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="R2285" s="1" t="s">
         <v>25</v>
@@ -26700,7 +26703,7 @@
     </row>
     <row r="2286" spans="1:18">
       <c r="A2286" s="1" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="R2286" s="1" t="s">
         <v>25</v>
@@ -26708,7 +26711,7 @@
     </row>
     <row r="2287" spans="1:18">
       <c r="A2287" s="1" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="R2287" s="1" t="s">
         <v>25</v>
@@ -26716,7 +26719,7 @@
     </row>
     <row r="2288" spans="1:18">
       <c r="A2288" s="1" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="R2288" s="1" t="s">
         <v>25</v>
@@ -26724,7 +26727,7 @@
     </row>
     <row r="2289" spans="1:18">
       <c r="A2289" s="1" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="R2289" s="1" t="s">
         <v>25</v>
@@ -26732,7 +26735,7 @@
     </row>
     <row r="2290" spans="1:18">
       <c r="A2290" s="1" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="R2290" s="1" t="s">
         <v>25</v>
@@ -26740,7 +26743,7 @@
     </row>
     <row r="2291" spans="1:18">
       <c r="A2291" s="1" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="R2291" s="1" t="s">
         <v>25</v>
@@ -26748,7 +26751,7 @@
     </row>
     <row r="2292" spans="1:18">
       <c r="A2292" s="1" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="R2292" s="1" t="s">
         <v>25</v>
@@ -26756,7 +26759,7 @@
     </row>
     <row r="2293" spans="1:18">
       <c r="A2293" s="1" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="R2293" s="1" t="s">
         <v>25</v>
@@ -26764,7 +26767,7 @@
     </row>
     <row r="2294" spans="1:18">
       <c r="A2294" s="1" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="R2294" s="1" t="s">
         <v>25</v>
@@ -26772,7 +26775,7 @@
     </row>
     <row r="2295" spans="1:18">
       <c r="A2295" s="1" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="R2295" s="1" t="s">
         <v>25</v>
@@ -26780,7 +26783,7 @@
     </row>
     <row r="2296" spans="1:18">
       <c r="A2296" s="1" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="R2296" s="1" t="s">
         <v>25</v>
@@ -26788,7 +26791,7 @@
     </row>
     <row r="2297" spans="1:18">
       <c r="A2297" s="1" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="R2297" s="1" t="s">
         <v>25</v>
@@ -26796,7 +26799,7 @@
     </row>
     <row r="2298" spans="1:18">
       <c r="A2298" s="1" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="R2298" s="1" t="s">
         <v>25</v>
@@ -26804,7 +26807,7 @@
     </row>
     <row r="2299" spans="1:18">
       <c r="A2299" s="1" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="R2299" s="1" t="s">
         <v>25</v>
@@ -26812,7 +26815,7 @@
     </row>
     <row r="2300" spans="1:18">
       <c r="A2300" s="1" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="R2300" s="1" t="s">
         <v>25</v>
@@ -26820,7 +26823,7 @@
     </row>
     <row r="2301" spans="1:18">
       <c r="A2301" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="R2301" s="1" t="s">
         <v>25</v>
@@ -26828,7 +26831,7 @@
     </row>
     <row r="2302" spans="1:18">
       <c r="A2302" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="R2302" s="1" t="s">
         <v>25</v>
@@ -26836,7 +26839,7 @@
     </row>
     <row r="2303" spans="1:18">
       <c r="A2303" s="1" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="R2303" s="1" t="s">
         <v>25</v>
@@ -26844,7 +26847,7 @@
     </row>
     <row r="2304" spans="1:18">
       <c r="A2304" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="R2304" s="1" t="s">
         <v>25</v>
@@ -26852,7 +26855,7 @@
     </row>
     <row r="2305" spans="1:18">
       <c r="A2305" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="R2305" s="1" t="s">
         <v>25</v>
@@ -26860,7 +26863,7 @@
     </row>
     <row r="2306" spans="1:18">
       <c r="A2306" s="1" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="R2306" s="1" t="s">
         <v>25</v>
@@ -26868,7 +26871,7 @@
     </row>
     <row r="2307" spans="1:18">
       <c r="A2307" s="1" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="R2307" s="1" t="s">
         <v>25</v>
@@ -26876,7 +26879,7 @@
     </row>
     <row r="2308" spans="1:18">
       <c r="A2308" s="1" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="R2308" s="1" t="s">
         <v>25</v>
@@ -26884,7 +26887,7 @@
     </row>
     <row r="2309" spans="1:18">
       <c r="A2309" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="R2309" s="1" t="s">
         <v>25</v>
@@ -26892,7 +26895,7 @@
     </row>
     <row r="2310" spans="1:18">
       <c r="A2310" s="1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="R2310" s="1" t="s">
         <v>25</v>
@@ -26900,7 +26903,7 @@
     </row>
     <row r="2311" spans="1:18">
       <c r="A2311" s="1" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="R2311" s="1" t="s">
         <v>25</v>
@@ -26908,7 +26911,7 @@
     </row>
     <row r="2312" spans="1:18">
       <c r="A2312" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="R2312" s="1" t="s">
         <v>25</v>
@@ -26916,7 +26919,7 @@
     </row>
     <row r="2313" spans="1:18">
       <c r="A2313" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="R2313" s="1" t="s">
         <v>25</v>
@@ -26924,7 +26927,7 @@
     </row>
     <row r="2314" spans="1:18">
       <c r="A2314" s="1" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="R2314" s="1" t="s">
         <v>25</v>
@@ -26932,7 +26935,7 @@
     </row>
     <row r="2315" spans="1:18">
       <c r="A2315" s="1" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="R2315" s="1" t="s">
         <v>25</v>
@@ -26940,7 +26943,7 @@
     </row>
     <row r="2316" spans="1:18">
       <c r="A2316" s="1" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="R2316" s="1" t="s">
         <v>25</v>
@@ -26948,7 +26951,7 @@
     </row>
     <row r="2317" spans="1:18">
       <c r="A2317" s="1" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="R2317" s="1" t="s">
         <v>25</v>
@@ -26956,7 +26959,7 @@
     </row>
     <row r="2318" spans="1:18">
       <c r="A2318" s="1" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="R2318" s="1" t="s">
         <v>25</v>
@@ -26964,7 +26967,7 @@
     </row>
     <row r="2319" spans="1:18">
       <c r="A2319" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="R2319" s="1" t="s">
         <v>25</v>
@@ -26972,7 +26975,7 @@
     </row>
     <row r="2320" spans="1:18">
       <c r="A2320" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="R2320" s="1" t="s">
         <v>25</v>
@@ -26980,7 +26983,7 @@
     </row>
     <row r="2321" spans="1:18">
       <c r="A2321" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="R2321" s="1" t="s">
         <v>25</v>
@@ -26988,7 +26991,7 @@
     </row>
     <row r="2322" spans="1:18">
       <c r="A2322" s="1" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="R2322" s="1" t="s">
         <v>25</v>
@@ -26996,7 +26999,7 @@
     </row>
     <row r="2323" spans="1:18">
       <c r="A2323" s="1" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="R2323" s="1" t="s">
         <v>25</v>
@@ -27004,7 +27007,7 @@
     </row>
     <row r="2324" spans="1:18">
       <c r="A2324" s="1" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="R2324" s="1" t="s">
         <v>25</v>
@@ -27012,7 +27015,7 @@
     </row>
     <row r="2325" spans="1:18">
       <c r="A2325" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="R2325" s="1" t="s">
         <v>25</v>
@@ -27020,7 +27023,7 @@
     </row>
     <row r="2326" spans="1:18">
       <c r="A2326" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="R2326" s="1" t="s">
         <v>25</v>
@@ -27028,7 +27031,7 @@
     </row>
     <row r="2327" spans="1:18">
       <c r="A2327" s="1" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="R2327" s="1" t="s">
         <v>25</v>
@@ -27036,7 +27039,7 @@
     </row>
     <row r="2328" spans="1:18">
       <c r="A2328" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="R2328" s="1" t="s">
         <v>25</v>
@@ -27044,7 +27047,7 @@
     </row>
     <row r="2329" spans="1:18">
       <c r="A2329" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="R2329" s="1" t="s">
         <v>25</v>
@@ -27052,7 +27055,7 @@
     </row>
     <row r="2330" spans="1:18">
       <c r="A2330" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="R2330" s="1" t="s">
         <v>25</v>
@@ -27060,7 +27063,7 @@
     </row>
     <row r="2331" spans="1:18">
       <c r="A2331" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="R2331" s="1" t="s">
         <v>25</v>
@@ -27076,7 +27079,7 @@
     </row>
     <row r="2333" spans="1:18">
       <c r="A2333" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="R2333" s="1" t="s">
         <v>25</v>
@@ -27084,7 +27087,7 @@
     </row>
     <row r="2334" spans="1:18">
       <c r="A2334" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="R2334" s="1" t="s">
         <v>25</v>
@@ -27092,7 +27095,7 @@
     </row>
     <row r="2335" spans="1:18">
       <c r="A2335" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="R2335" s="1" t="s">
         <v>25</v>
@@ -27100,7 +27103,7 @@
     </row>
     <row r="2336" spans="1:18">
       <c r="A2336" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="R2336" s="1" t="s">
         <v>25</v>
@@ -27108,7 +27111,7 @@
     </row>
     <row r="2337" spans="1:18">
       <c r="A2337" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="R2337" s="1" t="s">
         <v>25</v>
@@ -27116,7 +27119,7 @@
     </row>
     <row r="2338" spans="1:18">
       <c r="A2338" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="R2338" s="1" t="s">
         <v>25</v>
@@ -27124,7 +27127,7 @@
     </row>
     <row r="2339" spans="1:18">
       <c r="A2339" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="R2339" s="1" t="s">
         <v>25</v>
@@ -27132,7 +27135,7 @@
     </row>
     <row r="2340" spans="1:18">
       <c r="A2340" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="R2340" s="1" t="s">
         <v>25</v>
@@ -27140,7 +27143,7 @@
     </row>
     <row r="2341" spans="1:18">
       <c r="A2341" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="R2341" s="1" t="s">
         <v>25</v>
@@ -27148,7 +27151,7 @@
     </row>
     <row r="2342" spans="1:18">
       <c r="A2342" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="R2342" s="1" t="s">
         <v>25</v>
@@ -27164,7 +27167,7 @@
     </row>
     <row r="2344" spans="1:18">
       <c r="A2344" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="R2344" s="1" t="s">
         <v>25</v>
@@ -27172,7 +27175,7 @@
     </row>
     <row r="2345" spans="1:18">
       <c r="A2345" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="R2345" s="1" t="s">
         <v>25</v>
@@ -27180,7 +27183,7 @@
     </row>
     <row r="2346" spans="1:18">
       <c r="A2346" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="R2346" s="1" t="s">
         <v>25</v>
@@ -27188,7 +27191,7 @@
     </row>
     <row r="2347" spans="1:18">
       <c r="A2347" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="R2347" s="1" t="s">
         <v>25</v>
@@ -27196,7 +27199,7 @@
     </row>
     <row r="2348" spans="1:18">
       <c r="A2348" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="R2348" s="1" t="s">
         <v>25</v>
@@ -27204,7 +27207,7 @@
     </row>
     <row r="2349" spans="1:18">
       <c r="A2349" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="R2349" s="1" t="s">
         <v>25</v>
@@ -27212,7 +27215,7 @@
     </row>
     <row r="2350" spans="1:18">
       <c r="A2350" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="R2350" s="1" t="s">
         <v>25</v>
@@ -27220,7 +27223,7 @@
     </row>
     <row r="2351" spans="1:18">
       <c r="A2351" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="R2351" s="1" t="s">
         <v>25</v>
@@ -27228,7 +27231,7 @@
     </row>
     <row r="2352" spans="1:18">
       <c r="A2352" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="R2352" s="1" t="s">
         <v>25</v>
@@ -27236,7 +27239,7 @@
     </row>
     <row r="2353" spans="1:18">
       <c r="A2353" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="R2353" s="1" t="s">
         <v>25</v>
@@ -27244,7 +27247,7 @@
     </row>
     <row r="2354" spans="1:18">
       <c r="A2354" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="R2354" s="1" t="s">
         <v>25</v>
@@ -27252,7 +27255,7 @@
     </row>
     <row r="2355" spans="1:18">
       <c r="A2355" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="R2355" s="1" t="s">
         <v>25</v>
@@ -27260,7 +27263,7 @@
     </row>
     <row r="2356" spans="1:18">
       <c r="A2356" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="R2356" s="1" t="s">
         <v>25</v>
@@ -27268,7 +27271,7 @@
     </row>
     <row r="2357" spans="1:18">
       <c r="A2357" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="R2357" s="1" t="s">
         <v>25</v>
@@ -27276,7 +27279,7 @@
     </row>
     <row r="2358" spans="1:18">
       <c r="A2358" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="R2358" s="1" t="s">
         <v>25</v>
@@ -27284,7 +27287,7 @@
     </row>
     <row r="2359" spans="1:18">
       <c r="A2359" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="R2359" s="1" t="s">
         <v>25</v>
@@ -27292,7 +27295,7 @@
     </row>
     <row r="2360" spans="1:18">
       <c r="A2360" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="R2360" s="1" t="s">
         <v>25</v>
@@ -27300,7 +27303,7 @@
     </row>
     <row r="2361" spans="1:18">
       <c r="A2361" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="R2361" s="1" t="s">
         <v>25</v>
@@ -27308,7 +27311,7 @@
     </row>
     <row r="2362" spans="1:18">
       <c r="A2362" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="R2362" s="1" t="s">
         <v>25</v>
@@ -27316,7 +27319,7 @@
     </row>
     <row r="2363" spans="1:18">
       <c r="A2363" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="R2363" s="1" t="s">
         <v>25</v>
@@ -27324,7 +27327,7 @@
     </row>
     <row r="2364" spans="1:18">
       <c r="A2364" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="R2364" s="1" t="s">
         <v>25</v>
@@ -27332,7 +27335,7 @@
     </row>
     <row r="2365" spans="1:18">
       <c r="A2365" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="R2365" s="1" t="s">
         <v>25</v>
@@ -27340,7 +27343,7 @@
     </row>
     <row r="2366" spans="1:18">
       <c r="A2366" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="R2366" s="1" t="s">
         <v>25</v>
@@ -27348,7 +27351,7 @@
     </row>
     <row r="2367" spans="1:18">
       <c r="A2367" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="R2367" s="1" t="s">
         <v>25</v>
@@ -27356,7 +27359,7 @@
     </row>
     <row r="2368" spans="1:18">
       <c r="A2368" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="R2368" s="1" t="s">
         <v>25</v>
@@ -27364,7 +27367,7 @@
     </row>
     <row r="2369" spans="1:18">
       <c r="A2369" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="R2369" s="1" t="s">
         <v>25</v>
@@ -27372,7 +27375,7 @@
     </row>
     <row r="2370" spans="1:18">
       <c r="A2370" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="R2370" s="1" t="s">
         <v>25</v>
@@ -27380,7 +27383,7 @@
     </row>
     <row r="2371" spans="1:18">
       <c r="A2371" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="R2371" s="1" t="s">
         <v>25</v>
@@ -27388,7 +27391,7 @@
     </row>
     <row r="2372" spans="1:18">
       <c r="A2372" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="R2372" s="1" t="s">
         <v>25</v>
@@ -27396,7 +27399,7 @@
     </row>
     <row r="2373" spans="1:18">
       <c r="A2373" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="R2373" s="1" t="s">
         <v>25</v>
@@ -27404,7 +27407,7 @@
     </row>
     <row r="2374" spans="1:18">
       <c r="A2374" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="R2374" s="1" t="s">
         <v>25</v>
@@ -27412,7 +27415,7 @@
     </row>
     <row r="2375" spans="1:18">
       <c r="A2375" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="R2375" s="1" t="s">
         <v>25</v>
@@ -27420,7 +27423,7 @@
     </row>
     <row r="2376" spans="1:18">
       <c r="A2376" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="R2376" s="1" t="s">
         <v>25</v>
@@ -27428,7 +27431,7 @@
     </row>
     <row r="2377" spans="1:18">
       <c r="A2377" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="R2377" s="1" t="s">
         <v>25</v>
@@ -27436,7 +27439,7 @@
     </row>
     <row r="2378" spans="1:18">
       <c r="A2378" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="R2378" s="1" t="s">
         <v>25</v>
@@ -27444,7 +27447,7 @@
     </row>
     <row r="2379" spans="1:18">
       <c r="A2379" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="R2379" s="1" t="s">
         <v>25</v>
@@ -27452,7 +27455,7 @@
     </row>
     <row r="2380" spans="1:18">
       <c r="A2380" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="R2380" s="1" t="s">
         <v>25</v>
@@ -27460,7 +27463,7 @@
     </row>
     <row r="2381" spans="1:18">
       <c r="A2381" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="R2381" s="1" t="s">
         <v>25</v>
@@ -27468,7 +27471,7 @@
     </row>
     <row r="2382" spans="1:18">
       <c r="A2382" s="1" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="R2382" s="1" t="s">
         <v>25</v>
@@ -27476,7 +27479,7 @@
     </row>
     <row r="2383" spans="1:18">
       <c r="A2383" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="R2383" s="1" t="s">
         <v>25</v>
@@ -27484,7 +27487,7 @@
     </row>
     <row r="2384" spans="1:18">
       <c r="A2384" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="R2384" s="1" t="s">
         <v>25</v>
@@ -27492,7 +27495,7 @@
     </row>
     <row r="2385" spans="1:18">
       <c r="A2385" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="R2385" s="1" t="s">
         <v>25</v>
@@ -27500,7 +27503,7 @@
     </row>
     <row r="2386" spans="1:18">
       <c r="A2386" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="R2386" s="1" t="s">
         <v>25</v>
@@ -27508,7 +27511,7 @@
     </row>
     <row r="2387" spans="1:18">
       <c r="A2387" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="R2387" s="1" t="s">
         <v>25</v>
@@ -27516,7 +27519,7 @@
     </row>
     <row r="2388" spans="1:18">
       <c r="A2388" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="R2388" s="1" t="s">
         <v>25</v>
@@ -27524,7 +27527,7 @@
     </row>
     <row r="2389" spans="1:18">
       <c r="A2389" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="R2389" s="1" t="s">
         <v>25</v>
@@ -27532,7 +27535,7 @@
     </row>
     <row r="2390" spans="1:18">
       <c r="A2390" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="R2390" s="1" t="s">
         <v>25</v>
@@ -27540,7 +27543,7 @@
     </row>
     <row r="2391" spans="1:18">
       <c r="A2391" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="R2391" s="1" t="s">
         <v>25</v>
@@ -27548,7 +27551,7 @@
     </row>
     <row r="2392" spans="1:18">
       <c r="A2392" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="R2392" s="1" t="s">
         <v>25</v>
@@ -27556,7 +27559,7 @@
     </row>
     <row r="2393" spans="1:18">
       <c r="A2393" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="R2393" s="1" t="s">
         <v>25</v>
@@ -27564,7 +27567,7 @@
     </row>
     <row r="2394" spans="1:18">
       <c r="A2394" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="R2394" s="1" t="s">
         <v>25</v>
@@ -27572,7 +27575,7 @@
     </row>
     <row r="2395" spans="1:18">
       <c r="A2395" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="R2395" s="1" t="s">
         <v>25</v>
@@ -27580,7 +27583,7 @@
     </row>
     <row r="2396" spans="1:18">
       <c r="A2396" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="R2396" s="1" t="s">
         <v>25</v>
@@ -27588,7 +27591,7 @@
     </row>
     <row r="2397" spans="1:18">
       <c r="A2397" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="R2397" s="1" t="s">
         <v>25</v>
@@ -27596,7 +27599,7 @@
     </row>
     <row r="2398" spans="1:18">
       <c r="A2398" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="R2398" s="1" t="s">
         <v>25</v>
@@ -27604,7 +27607,7 @@
     </row>
     <row r="2399" spans="1:18">
       <c r="A2399" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="R2399" s="1" t="s">
         <v>25</v>
@@ -27612,7 +27615,7 @@
     </row>
     <row r="2400" spans="1:18">
       <c r="A2400" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="R2400" s="1" t="s">
         <v>25</v>
@@ -27620,7 +27623,7 @@
     </row>
     <row r="2401" spans="1:18">
       <c r="A2401" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="R2401" s="1" t="s">
         <v>25</v>
@@ -27628,7 +27631,7 @@
     </row>
     <row r="2402" spans="1:18">
       <c r="A2402" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="R2402" s="1" t="s">
         <v>25</v>
@@ -27636,7 +27639,7 @@
     </row>
     <row r="2403" spans="1:18">
       <c r="A2403" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="R2403" s="1" t="s">
         <v>25</v>
@@ -27644,7 +27647,7 @@
     </row>
     <row r="2404" spans="1:18">
       <c r="A2404" s="1" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="R2404" s="1" t="s">
         <v>25</v>
@@ -27652,7 +27655,7 @@
     </row>
     <row r="2405" spans="1:18">
       <c r="A2405" s="1" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="R2405" s="1" t="s">
         <v>25</v>
@@ -27660,7 +27663,7 @@
     </row>
     <row r="2406" spans="1:18">
       <c r="A2406" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="R2406" s="1" t="s">
         <v>25</v>
@@ -27668,7 +27671,7 @@
     </row>
     <row r="2407" spans="1:18">
       <c r="A2407" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="R2407" s="1" t="s">
         <v>25</v>
@@ -27676,7 +27679,7 @@
     </row>
     <row r="2408" spans="1:18">
       <c r="A2408" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="R2408" s="1" t="s">
         <v>25</v>
@@ -27684,7 +27687,7 @@
     </row>
     <row r="2409" spans="1:18">
       <c r="A2409" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="R2409" s="1" t="s">
         <v>25</v>
@@ -27692,7 +27695,7 @@
     </row>
     <row r="2410" spans="1:18">
       <c r="A2410" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="R2410" s="1" t="s">
         <v>25</v>
@@ -27700,7 +27703,7 @@
     </row>
     <row r="2411" spans="1:18">
       <c r="A2411" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="R2411" s="1" t="s">
         <v>25</v>
@@ -27708,7 +27711,7 @@
     </row>
     <row r="2412" spans="1:18">
       <c r="A2412" s="1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="R2412" s="1" t="s">
         <v>25</v>
@@ -27716,7 +27719,7 @@
     </row>
     <row r="2413" spans="1:18">
       <c r="A2413" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="R2413" s="1" t="s">
         <v>25</v>
@@ -27724,7 +27727,7 @@
     </row>
     <row r="2414" spans="1:18">
       <c r="A2414" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="R2414" s="1" t="s">
         <v>25</v>
@@ -27732,7 +27735,7 @@
     </row>
     <row r="2415" spans="1:18">
       <c r="A2415" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="R2415" s="1" t="s">
         <v>25</v>
@@ -27740,7 +27743,7 @@
     </row>
     <row r="2416" spans="1:18">
       <c r="A2416" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="R2416" s="1" t="s">
         <v>25</v>
@@ -27748,7 +27751,7 @@
     </row>
     <row r="2417" spans="1:18">
       <c r="A2417" s="1" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="R2417" s="1" t="s">
         <v>25</v>
@@ -27764,7 +27767,7 @@
     </row>
     <row r="2419" spans="1:18">
       <c r="A2419" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="R2419" s="1" t="s">
         <v>25</v>
@@ -27772,7 +27775,7 @@
     </row>
     <row r="2420" spans="1:18">
       <c r="A2420" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="R2420" s="1" t="s">
         <v>25</v>
@@ -27780,7 +27783,7 @@
     </row>
     <row r="2421" spans="1:18">
       <c r="A2421" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="R2421" s="1" t="s">
         <v>25</v>
@@ -27788,7 +27791,7 @@
     </row>
     <row r="2422" spans="1:18">
       <c r="A2422" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="R2422" s="1" t="s">
         <v>25</v>
@@ -27796,7 +27799,7 @@
     </row>
     <row r="2423" spans="1:18">
       <c r="A2423" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="R2423" s="1" t="s">
         <v>25</v>
@@ -27804,7 +27807,7 @@
     </row>
     <row r="2424" spans="1:18">
       <c r="A2424" s="1" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="R2424" s="1" t="s">
         <v>25</v>
@@ -27812,7 +27815,7 @@
     </row>
     <row r="2425" spans="1:18">
       <c r="A2425" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="R2425" s="1" t="s">
         <v>25</v>
@@ -27820,7 +27823,7 @@
     </row>
     <row r="2426" spans="1:18">
       <c r="A2426" s="1" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="R2426" s="1" t="s">
         <v>25</v>
@@ -27828,7 +27831,7 @@
     </row>
     <row r="2427" spans="1:18">
       <c r="A2427" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="R2427" s="1" t="s">
         <v>25</v>
@@ -27836,7 +27839,7 @@
     </row>
     <row r="2428" spans="1:18">
       <c r="A2428" s="1" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="R2428" s="1" t="s">
         <v>25</v>
@@ -27844,7 +27847,7 @@
     </row>
     <row r="2429" spans="1:18">
       <c r="A2429" s="1" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="R2429" s="1" t="s">
         <v>25</v>
@@ -27852,7 +27855,7 @@
     </row>
     <row r="2430" spans="1:18">
       <c r="A2430" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="R2430" s="1" t="s">
         <v>25</v>
@@ -27860,7 +27863,7 @@
     </row>
     <row r="2431" spans="1:18">
       <c r="A2431" s="1" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="R2431" s="1" t="s">
         <v>25</v>
@@ -27868,7 +27871,7 @@
     </row>
     <row r="2432" spans="1:18">
       <c r="A2432" s="1" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="R2432" s="1" t="s">
         <v>25</v>
@@ -27876,7 +27879,7 @@
     </row>
     <row r="2433" spans="1:19">
       <c r="A2433" s="1" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="R2433" s="1" t="s">
         <v>25</v>
@@ -27884,7 +27887,7 @@
     </row>
     <row r="2434" spans="1:19">
       <c r="A2434" s="1" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="S2434" s="1" t="s">
         <v>25</v>
@@ -27892,7 +27895,7 @@
     </row>
     <row r="2435" spans="1:19">
       <c r="A2435" s="1" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="S2435" s="1" t="s">
         <v>25</v>
@@ -27900,7 +27903,7 @@
     </row>
     <row r="2436" spans="1:19">
       <c r="A2436" s="1" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="S2436" s="1" t="s">
         <v>25</v>
@@ -27908,7 +27911,7 @@
     </row>
     <row r="2437" spans="1:19">
       <c r="A2437" s="1" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="S2437" s="1" t="s">
         <v>25</v>
@@ -27916,7 +27919,7 @@
     </row>
     <row r="2438" spans="1:19">
       <c r="A2438" s="1" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="S2438" s="1" t="s">
         <v>25</v>
@@ -27924,7 +27927,7 @@
     </row>
     <row r="2439" spans="1:19">
       <c r="A2439" s="1" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="S2439" s="1" t="s">
         <v>25</v>
@@ -27932,7 +27935,7 @@
     </row>
     <row r="2440" spans="1:19">
       <c r="A2440" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="S2440" s="1" t="s">
         <v>25</v>
@@ -27940,7 +27943,7 @@
     </row>
     <row r="2441" spans="1:19">
       <c r="A2441" s="1" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="S2441" s="1" t="s">
         <v>25</v>
@@ -27948,7 +27951,7 @@
     </row>
     <row r="2442" spans="1:19">
       <c r="A2442" s="1" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="S2442" s="1" t="s">
         <v>25</v>
@@ -27956,7 +27959,7 @@
     </row>
     <row r="2443" spans="1:19">
       <c r="A2443" s="1" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="S2443" s="1" t="s">
         <v>25</v>
@@ -27964,7 +27967,7 @@
     </row>
     <row r="2444" spans="1:19">
       <c r="A2444" s="1" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="S2444" s="1" t="s">
         <v>25</v>
@@ -27972,7 +27975,7 @@
     </row>
     <row r="2445" spans="1:19">
       <c r="A2445" s="1" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="S2445" s="1" t="s">
         <v>25</v>
@@ -27980,7 +27983,7 @@
     </row>
     <row r="2446" spans="1:19">
       <c r="A2446" s="1" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="S2446" s="1" t="s">
         <v>25</v>
@@ -27988,7 +27991,7 @@
     </row>
     <row r="2447" spans="1:19">
       <c r="A2447" s="1" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="S2447" s="1" t="s">
         <v>25</v>
@@ -27996,7 +27999,7 @@
     </row>
     <row r="2448" spans="1:19">
       <c r="A2448" s="1" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="S2448" s="1" t="s">
         <v>25</v>
@@ -28004,7 +28007,7 @@
     </row>
     <row r="2449" spans="1:20">
       <c r="A2449" s="1" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="S2449" s="1" t="s">
         <v>25</v>
@@ -28012,7 +28015,7 @@
     </row>
     <row r="2450" spans="1:20">
       <c r="A2450" s="1" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="T2450" s="1" t="s">
         <v>25</v>
@@ -28020,7 +28023,7 @@
     </row>
     <row r="2451" spans="1:20">
       <c r="A2451" s="1" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="T2451" s="1" t="s">
         <v>25</v>
@@ -28028,7 +28031,7 @@
     </row>
     <row r="2452" spans="1:20">
       <c r="A2452" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="T2452" s="1" t="s">
         <v>25</v>
@@ -28036,7 +28039,7 @@
     </row>
     <row r="2453" spans="1:20">
       <c r="A2453" s="1" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="T2453" s="1" t="s">
         <v>25</v>
@@ -28044,7 +28047,7 @@
     </row>
     <row r="2454" spans="1:20">
       <c r="A2454" s="1" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="T2454" s="1" t="s">
         <v>25</v>
@@ -28052,7 +28055,7 @@
     </row>
     <row r="2455" spans="1:20">
       <c r="A2455" s="1" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="T2455" s="1" t="s">
         <v>25</v>
@@ -28060,7 +28063,7 @@
     </row>
     <row r="2456" spans="1:20">
       <c r="A2456" s="1" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="T2456" s="1" t="s">
         <v>25</v>
@@ -28068,7 +28071,7 @@
     </row>
     <row r="2457" spans="1:20">
       <c r="A2457" s="1" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="T2457" s="1" t="s">
         <v>25</v>
@@ -28076,7 +28079,7 @@
     </row>
     <row r="2458" spans="1:20">
       <c r="A2458" s="1" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="T2458" s="1" t="s">
         <v>25</v>
@@ -28084,7 +28087,7 @@
     </row>
     <row r="2459" spans="1:20">
       <c r="A2459" s="1" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="T2459" s="1" t="s">
         <v>25</v>
@@ -28092,7 +28095,7 @@
     </row>
     <row r="2460" spans="1:20">
       <c r="A2460" s="1" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="T2460" s="1" t="s">
         <v>25</v>
@@ -28100,7 +28103,7 @@
     </row>
     <row r="2461" spans="1:20">
       <c r="A2461" s="1" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="T2461" s="1" t="s">
         <v>25</v>
@@ -28108,7 +28111,7 @@
     </row>
     <row r="2462" spans="1:20">
       <c r="A2462" s="1" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="T2462" s="1" t="s">
         <v>25</v>
@@ -28116,7 +28119,7 @@
     </row>
     <row r="2463" spans="1:20">
       <c r="A2463" s="1" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="T2463" s="1" t="s">
         <v>25</v>
@@ -28124,7 +28127,7 @@
     </row>
     <row r="2464" spans="1:20">
       <c r="A2464" s="1" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="T2464" s="1" t="s">
         <v>25</v>
@@ -28132,7 +28135,7 @@
     </row>
     <row r="2465" spans="1:21">
       <c r="A2465" s="1" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="T2465" s="1" t="s">
         <v>25</v>
@@ -28140,7 +28143,7 @@
     </row>
     <row r="2466" spans="1:21">
       <c r="A2466" s="1" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="T2466" s="1" t="s">
         <v>25</v>
@@ -28148,7 +28151,7 @@
     </row>
     <row r="2467" spans="1:21">
       <c r="A2467" s="1" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="T2467" s="1" t="s">
         <v>25</v>
@@ -28156,7 +28159,7 @@
     </row>
     <row r="2468" spans="1:21">
       <c r="A2468" s="1" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="T2468" s="1" t="s">
         <v>25</v>
@@ -28164,7 +28167,7 @@
     </row>
     <row r="2469" spans="1:21">
       <c r="A2469" s="1" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="T2469" s="1" t="s">
         <v>25</v>
@@ -28172,7 +28175,7 @@
     </row>
     <row r="2470" spans="1:21">
       <c r="A2470" s="1" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="U2470" s="1" t="s">
         <v>25</v>
@@ -28180,7 +28183,7 @@
     </row>
     <row r="2471" spans="1:21">
       <c r="A2471" s="1" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="U2471" s="1" t="s">
         <v>25</v>
@@ -28188,7 +28191,7 @@
     </row>
     <row r="2472" spans="1:21">
       <c r="A2472" s="1" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="U2472" s="1" t="s">
         <v>25</v>
@@ -28196,7 +28199,7 @@
     </row>
     <row r="2473" spans="1:21">
       <c r="A2473" s="1" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="U2473" s="1" t="s">
         <v>25</v>
@@ -28204,7 +28207,7 @@
     </row>
     <row r="2474" spans="1:21">
       <c r="A2474" s="1" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="U2474" s="1" t="s">
         <v>25</v>
@@ -28212,7 +28215,7 @@
     </row>
     <row r="2475" spans="1:21">
       <c r="A2475" s="1" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="U2475" s="1" t="s">
         <v>25</v>
@@ -28220,7 +28223,7 @@
     </row>
     <row r="2476" spans="1:21">
       <c r="A2476" s="1" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="U2476" s="1" t="s">
         <v>25</v>
@@ -28228,7 +28231,7 @@
     </row>
     <row r="2477" spans="1:21">
       <c r="A2477" s="1" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="U2477" s="1" t="s">
         <v>25</v>
@@ -28236,7 +28239,7 @@
     </row>
     <row r="2478" spans="1:21">
       <c r="A2478" s="1" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="U2478" s="1" t="s">
         <v>25</v>
@@ -28244,7 +28247,7 @@
     </row>
     <row r="2479" spans="1:21">
       <c r="A2479" s="1" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="U2479" s="1" t="s">
         <v>25</v>
@@ -28252,7 +28255,7 @@
     </row>
     <row r="2480" spans="1:21">
       <c r="A2480" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="U2480" s="1" t="s">
         <v>25</v>
@@ -28260,7 +28263,7 @@
     </row>
     <row r="2481" spans="1:23">
       <c r="A2481" s="1" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="U2481" s="1" t="s">
         <v>25</v>
@@ -28268,7 +28271,7 @@
     </row>
     <row r="2482" spans="1:23">
       <c r="A2482" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="V2482" s="1" t="s">
         <v>25</v>
@@ -28276,7 +28279,7 @@
     </row>
     <row r="2483" spans="1:23">
       <c r="A2483" s="1" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="V2483" s="1" t="s">
         <v>25</v>
@@ -28284,7 +28287,7 @@
     </row>
     <row r="2484" spans="1:23">
       <c r="A2484" s="1" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="V2484" s="1" t="s">
         <v>25</v>
@@ -28292,7 +28295,7 @@
     </row>
     <row r="2485" spans="1:23">
       <c r="A2485" s="1" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="V2485" s="1" t="s">
         <v>25</v>
@@ -28300,7 +28303,7 @@
     </row>
     <row r="2486" spans="1:23">
       <c r="A2486" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="V2486" s="1" t="s">
         <v>25</v>
@@ -28308,7 +28311,7 @@
     </row>
     <row r="2487" spans="1:23">
       <c r="A2487" s="1" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="V2487" s="1" t="s">
         <v>25</v>
@@ -28316,7 +28319,7 @@
     </row>
     <row r="2488" spans="1:23">
       <c r="A2488" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="V2488" s="1" t="s">
         <v>25</v>
@@ -28324,7 +28327,7 @@
     </row>
     <row r="2489" spans="1:23">
       <c r="A2489" s="1" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="V2489" s="1" t="s">
         <v>25</v>
@@ -28332,7 +28335,7 @@
     </row>
     <row r="2490" spans="1:23">
       <c r="A2490" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="V2490" s="1" t="s">
         <v>25</v>
@@ -28340,7 +28343,7 @@
     </row>
     <row r="2491" spans="1:23">
       <c r="A2491" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="V2491" s="1" t="s">
         <v>25</v>
@@ -28348,7 +28351,7 @@
     </row>
     <row r="2492" spans="1:23">
       <c r="A2492" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="V2492" s="1" t="s">
         <v>25</v>
@@ -28356,7 +28359,7 @@
     </row>
     <row r="2493" spans="1:23">
       <c r="A2493" s="1" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="V2493" s="1" t="s">
         <v>25</v>
@@ -28364,7 +28367,7 @@
     </row>
     <row r="2494" spans="1:23">
       <c r="A2494" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="V2494" s="1" t="s">
         <v>25</v>
@@ -28372,7 +28375,7 @@
     </row>
     <row r="2495" spans="1:23">
       <c r="A2495" s="1" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="W2495" s="1" t="s">
         <v>25</v>
@@ -28380,7 +28383,7 @@
     </row>
     <row r="2496" spans="1:23">
       <c r="A2496" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="W2496" s="1" t="s">
         <v>25</v>
@@ -28388,7 +28391,7 @@
     </row>
     <row r="2497" spans="1:23">
       <c r="A2497" s="1" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="W2497" s="1" t="s">
         <v>25</v>
@@ -28396,7 +28399,7 @@
     </row>
     <row r="2498" spans="1:23">
       <c r="A2498" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="W2498" s="1" t="s">
         <v>25</v>
@@ -28404,7 +28407,7 @@
     </row>
     <row r="2499" spans="1:23">
       <c r="A2499" s="1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="W2499" s="1" t="s">
         <v>25</v>
@@ -28412,7 +28415,7 @@
     </row>
     <row r="2500" spans="1:23">
       <c r="A2500" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="W2500" s="1" t="s">
         <v>25</v>
@@ -28420,7 +28423,7 @@
     </row>
     <row r="2501" spans="1:23">
       <c r="A2501" s="1" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="W2501" s="1" t="s">
         <v>25</v>
@@ -28428,7 +28431,7 @@
     </row>
     <row r="2502" spans="1:23">
       <c r="A2502" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="W2502" s="1" t="s">
         <v>25</v>
@@ -28436,7 +28439,7 @@
     </row>
     <row r="2503" spans="1:23">
       <c r="A2503" s="1" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="W2503" s="1" t="s">
         <v>25</v>
@@ -28444,7 +28447,7 @@
     </row>
     <row r="2504" spans="1:23">
       <c r="A2504" s="1" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="W2504" s="1" t="s">
         <v>25</v>
@@ -28452,7 +28455,7 @@
     </row>
     <row r="2505" spans="1:23">
       <c r="A2505" s="1" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="W2505" s="1" t="s">
         <v>25</v>
@@ -28460,7 +28463,7 @@
     </row>
     <row r="2506" spans="1:23">
       <c r="A2506" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="W2506" s="1" t="s">
         <v>25</v>
@@ -28468,7 +28471,7 @@
     </row>
     <row r="2507" spans="1:23">
       <c r="A2507" s="1" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="W2507" s="1" t="s">
         <v>25</v>
@@ -28476,7 +28479,7 @@
     </row>
     <row r="2508" spans="1:23">
       <c r="A2508" s="1" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="W2508" s="1" t="s">
         <v>25</v>
@@ -28484,7 +28487,7 @@
     </row>
     <row r="2509" spans="1:23">
       <c r="A2509" s="1" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="W2509" s="1" t="s">
         <v>25</v>
@@ -28492,7 +28495,7 @@
     </row>
     <row r="2510" spans="1:23">
       <c r="A2510" s="1" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="W2510" s="1" t="s">
         <v>25</v>
@@ -28500,7 +28503,7 @@
     </row>
     <row r="2511" spans="1:23">
       <c r="A2511" s="1" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="W2511" s="1" t="s">
         <v>25</v>
@@ -28508,7 +28511,7 @@
     </row>
     <row r="2512" spans="1:23">
       <c r="A2512" s="1" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="W2512" s="1" t="s">
         <v>25</v>
@@ -28516,7 +28519,7 @@
     </row>
     <row r="2513" spans="1:23">
       <c r="A2513" s="1" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="W2513" s="1" t="s">
         <v>25</v>
@@ -28524,7 +28527,7 @@
     </row>
     <row r="2514" spans="1:23">
       <c r="A2514" s="1" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="W2514" s="1" t="s">
         <v>25</v>
@@ -28532,7 +28535,7 @@
     </row>
     <row r="2515" spans="1:23">
       <c r="A2515" s="1" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="W2515" s="1" t="s">
         <v>25</v>
@@ -28540,7 +28543,7 @@
     </row>
     <row r="2516" spans="1:23">
       <c r="A2516" s="1" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="W2516" s="1" t="s">
         <v>25</v>
@@ -28548,7 +28551,7 @@
     </row>
     <row r="2517" spans="1:23">
       <c r="A2517" s="1" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="W2517" s="1" t="s">
         <v>25</v>
@@ -28556,7 +28559,7 @@
     </row>
     <row r="2518" spans="1:23">
       <c r="A2518" s="1" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="W2518" s="1" t="s">
         <v>25</v>
@@ -28564,7 +28567,7 @@
     </row>
     <row r="2519" spans="1:23">
       <c r="A2519" s="1" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="W2519" s="1" t="s">
         <v>25</v>
@@ -28572,7 +28575,7 @@
     </row>
     <row r="2520" spans="1:23">
       <c r="A2520" s="1" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="W2520" s="1" t="s">
         <v>25</v>
@@ -28580,7 +28583,7 @@
     </row>
     <row r="2521" spans="1:23">
       <c r="A2521" s="1" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="W2521" s="1" t="s">
         <v>25</v>
@@ -28588,7 +28591,7 @@
     </row>
     <row r="2522" spans="1:23">
       <c r="A2522" s="1" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="W2522" s="1" t="s">
         <v>25</v>
@@ -28596,7 +28599,7 @@
     </row>
     <row r="2523" spans="1:23">
       <c r="A2523" s="1" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="W2523" s="1" t="s">
         <v>25</v>
@@ -28604,7 +28607,7 @@
     </row>
     <row r="2524" spans="1:23">
       <c r="A2524" s="1" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="W2524" s="1" t="s">
         <v>25</v>
@@ -28612,7 +28615,7 @@
     </row>
     <row r="2525" spans="1:23">
       <c r="A2525" s="1" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="W2525" s="1" t="s">
         <v>25</v>
@@ -28620,7 +28623,7 @@
     </row>
     <row r="2526" spans="1:23">
       <c r="A2526" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="W2526" s="1" t="s">
         <v>25</v>
@@ -28628,7 +28631,7 @@
     </row>
     <row r="2527" spans="1:23">
       <c r="A2527" s="1" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="W2527" s="1" t="s">
         <v>25</v>
@@ -28636,7 +28639,7 @@
     </row>
     <row r="2528" spans="1:23">
       <c r="A2528" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="W2528" s="1" t="s">
         <v>25</v>
@@ -28644,7 +28647,7 @@
     </row>
     <row r="2529" spans="1:23">
       <c r="A2529" s="1" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="W2529" s="1" t="s">
         <v>25</v>
@@ -28652,7 +28655,7 @@
     </row>
     <row r="2530" spans="1:23">
       <c r="A2530" s="1" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="W2530" s="1" t="s">
         <v>25</v>
@@ -28660,7 +28663,7 @@
     </row>
     <row r="2531" spans="1:23">
       <c r="A2531" s="1" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="W2531" s="1" t="s">
         <v>25</v>
@@ -28668,7 +28671,7 @@
     </row>
     <row r="2532" spans="1:23">
       <c r="A2532" s="1" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="W2532" s="1" t="s">
         <v>25</v>
@@ -28676,7 +28679,7 @@
     </row>
     <row r="2533" spans="1:23">
       <c r="A2533" s="1" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="W2533" s="1" t="s">
         <v>25</v>
@@ -28684,7 +28687,7 @@
     </row>
     <row r="2534" spans="1:23">
       <c r="A2534" s="1" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="W2534" s="1" t="s">
         <v>25</v>
@@ -28692,7 +28695,7 @@
     </row>
     <row r="2535" spans="1:23">
       <c r="A2535" s="1" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="W2535" s="1" t="s">
         <v>25</v>
@@ -28700,7 +28703,7 @@
     </row>
     <row r="2536" spans="1:23">
       <c r="A2536" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="W2536" s="1" t="s">
         <v>25</v>
@@ -28708,7 +28711,7 @@
     </row>
     <row r="2537" spans="1:23">
       <c r="A2537" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="W2537" s="1" t="s">
         <v>25</v>
@@ -28716,7 +28719,7 @@
     </row>
     <row r="2538" spans="1:23">
       <c r="A2538" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="W2538" s="1" t="s">
         <v>25</v>
@@ -28724,7 +28727,7 @@
     </row>
     <row r="2539" spans="1:23">
       <c r="A2539" s="1" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="W2539" s="1" t="s">
         <v>25</v>
@@ -28732,7 +28735,7 @@
     </row>
     <row r="2540" spans="1:23">
       <c r="A2540" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="W2540" s="1" t="s">
         <v>25</v>
@@ -28740,7 +28743,7 @@
     </row>
     <row r="2541" spans="1:23">
       <c r="A2541" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="W2541" s="1" t="s">
         <v>25</v>
@@ -28748,7 +28751,7 @@
     </row>
     <row r="2542" spans="1:23">
       <c r="A2542" s="1" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="W2542" s="1" t="s">
         <v>25</v>
@@ -28756,7 +28759,7 @@
     </row>
     <row r="2543" spans="1:23">
       <c r="A2543" s="1" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="W2543" s="1" t="s">
         <v>25</v>
@@ -28764,7 +28767,7 @@
     </row>
     <row r="2544" spans="1:23">
       <c r="A2544" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="W2544" s="1" t="s">
         <v>25</v>
@@ -28772,7 +28775,7 @@
     </row>
     <row r="2545" spans="1:24">
       <c r="A2545" s="1" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="W2545" s="1" t="s">
         <v>25</v>
@@ -28780,7 +28783,7 @@
     </row>
     <row r="2546" spans="1:24">
       <c r="A2546" s="1" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="W2546" s="1" t="s">
         <v>25</v>
@@ -28788,7 +28791,7 @@
     </row>
     <row r="2547" spans="1:24">
       <c r="A2547" s="1" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="W2547" s="1" t="s">
         <v>25</v>
@@ -28796,7 +28799,7 @@
     </row>
     <row r="2548" spans="1:24">
       <c r="A2548" s="1" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="W2548" s="1" t="s">
         <v>25</v>
@@ -28804,7 +28807,7 @@
     </row>
     <row r="2549" spans="1:24">
       <c r="A2549" s="1" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="W2549" s="1" t="s">
         <v>25</v>
@@ -28812,7 +28815,7 @@
     </row>
     <row r="2550" spans="1:24">
       <c r="A2550" s="1" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="W2550" s="1" t="s">
         <v>25</v>
@@ -28820,7 +28823,7 @@
     </row>
     <row r="2551" spans="1:24">
       <c r="A2551" s="1" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="W2551" s="1" t="s">
         <v>25</v>
@@ -28828,7 +28831,7 @@
     </row>
     <row r="2552" spans="1:24">
       <c r="A2552" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="W2552" s="1" t="s">
         <v>25</v>
@@ -28836,7 +28839,7 @@
     </row>
     <row r="2553" spans="1:24">
       <c r="A2553" s="1" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="W2553" s="1" t="s">
         <v>25</v>
@@ -28844,7 +28847,7 @@
     </row>
     <row r="2554" spans="1:24">
       <c r="A2554" s="1" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="W2554" s="1" t="s">
         <v>25</v>
@@ -28852,7 +28855,7 @@
     </row>
     <row r="2555" spans="1:24">
       <c r="A2555" s="1" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="W2555" s="1" t="s">
         <v>25</v>
@@ -28860,7 +28863,7 @@
     </row>
     <row r="2556" spans="1:24">
       <c r="A2556" s="1" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="W2556" s="1" t="s">
         <v>25</v>
@@ -28868,7 +28871,7 @@
     </row>
     <row r="2557" spans="1:24">
       <c r="A2557" s="1" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="X2557" s="1" t="s">
         <v>96</v>
@@ -28876,7 +28879,7 @@
     </row>
     <row r="2558" spans="1:24">
       <c r="A2558" s="1" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="X2558" s="1" t="s">
         <v>96</v>
@@ -28884,7 +28887,7 @@
     </row>
     <row r="2559" spans="1:24">
       <c r="A2559" s="1" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="X2559" s="1" t="s">
         <v>96</v>
@@ -28892,7 +28895,7 @@
     </row>
     <row r="2560" spans="1:24">
       <c r="A2560" s="1" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="X2560" s="1" t="s">
         <v>82</v>
@@ -28900,7 +28903,7 @@
     </row>
     <row r="2561" spans="1:24">
       <c r="A2561" s="1" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="X2561" s="1" t="s">
         <v>82</v>
@@ -28908,7 +28911,7 @@
     </row>
     <row r="2562" spans="1:24">
       <c r="A2562" s="1" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="X2562" s="1" t="s">
         <v>96</v>
@@ -28916,7 +28919,7 @@
     </row>
     <row r="2563" spans="1:24">
       <c r="A2563" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="X2563" s="1" t="s">
         <v>96</v>
@@ -28924,7 +28927,7 @@
     </row>
     <row r="2564" spans="1:24">
       <c r="A2564" s="1" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="X2564" s="1" t="s">
         <v>82</v>
@@ -28932,7 +28935,7 @@
     </row>
     <row r="2565" spans="1:24">
       <c r="A2565" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="X2565" s="1" t="s">
         <v>96</v>
@@ -28940,7 +28943,7 @@
     </row>
     <row r="2566" spans="1:24">
       <c r="A2566" s="1" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="X2566" s="1" t="s">
         <v>96</v>
@@ -28948,7 +28951,7 @@
     </row>
     <row r="2567" spans="1:24">
       <c r="A2567" s="1" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="X2567" s="1" t="s">
         <v>96</v>
@@ -28956,7 +28959,7 @@
     </row>
     <row r="2568" spans="1:24">
       <c r="A2568" s="1" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="X2568" s="1" t="s">
         <v>82</v>
@@ -28964,7 +28967,7 @@
     </row>
     <row r="2569" spans="1:24">
       <c r="A2569" s="1" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="X2569" s="1" t="s">
         <v>82</v>
@@ -28972,7 +28975,7 @@
     </row>
     <row r="2570" spans="1:24">
       <c r="A2570" s="1" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="X2570" s="1" t="s">
         <v>82</v>
@@ -28980,7 +28983,7 @@
     </row>
     <row r="2571" spans="1:24">
       <c r="A2571" s="1" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="X2571" s="1" t="s">
         <v>96</v>
@@ -28988,7 +28991,7 @@
     </row>
     <row r="2572" spans="1:24">
       <c r="A2572" s="1" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="X2572" s="1" t="s">
         <v>96</v>
@@ -28996,7 +28999,7 @@
     </row>
     <row r="2573" spans="1:24">
       <c r="A2573" s="1" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="X2573" s="1" t="s">
         <v>96</v>
@@ -29004,7 +29007,7 @@
     </row>
     <row r="2574" spans="1:24">
       <c r="A2574" s="1" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="X2574" s="1" t="s">
         <v>82</v>
@@ -29012,7 +29015,7 @@
     </row>
     <row r="2575" spans="1:24">
       <c r="A2575" s="1" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="X2575" s="1" t="s">
         <v>96</v>
@@ -29020,7 +29023,7 @@
     </row>
     <row r="2576" spans="1:24">
       <c r="A2576" s="1" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="X2576" s="1" t="s">
         <v>96</v>
@@ -29028,7 +29031,7 @@
     </row>
     <row r="2577" spans="1:24">
       <c r="A2577" s="1" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="X2577" s="1" t="s">
         <v>82</v>
@@ -29036,7 +29039,7 @@
     </row>
     <row r="2578" spans="1:24">
       <c r="A2578" s="1" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="X2578" s="1" t="s">
         <v>96</v>
@@ -29044,7 +29047,7 @@
     </row>
     <row r="2579" spans="1:24">
       <c r="A2579" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="X2579" s="1" t="s">
         <v>96</v>
@@ -29052,7 +29055,7 @@
     </row>
     <row r="2580" spans="1:24">
       <c r="A2580" s="1" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="X2580" s="1" t="s">
         <v>82</v>
@@ -29060,7 +29063,7 @@
     </row>
     <row r="2581" spans="1:24">
       <c r="A2581" s="1" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="X2581" s="1" t="s">
         <v>96</v>
@@ -29068,7 +29071,7 @@
     </row>
     <row r="2582" spans="1:24">
       <c r="A2582" s="1" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="X2582" s="1" t="s">
         <v>82</v>
@@ -29076,7 +29079,7 @@
     </row>
     <row r="2583" spans="1:24">
       <c r="A2583" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="X2583" s="1" t="s">
         <v>82</v>
@@ -29084,7 +29087,7 @@
     </row>
     <row r="2584" spans="1:24">
       <c r="A2584" s="1" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="X2584" s="1" t="s">
         <v>96</v>
@@ -29092,7 +29095,7 @@
     </row>
     <row r="2585" spans="1:24">
       <c r="A2585" s="1" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="X2585" s="1" t="s">
         <v>82</v>
@@ -29100,7 +29103,7 @@
     </row>
     <row r="2586" spans="1:24">
       <c r="A2586" s="1" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="X2586" s="1" t="s">
         <v>82</v>
@@ -29108,7 +29111,7 @@
     </row>
     <row r="2587" spans="1:24">
       <c r="A2587" s="1" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="X2587" s="1" t="s">
         <v>96</v>
@@ -29116,7 +29119,7 @@
     </row>
     <row r="2588" spans="1:24">
       <c r="A2588" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="X2588" s="1" t="s">
         <v>82</v>
@@ -29124,7 +29127,7 @@
     </row>
     <row r="2589" spans="1:24">
       <c r="A2589" s="1" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="X2589" s="1" t="s">
         <v>96</v>
@@ -29132,7 +29135,7 @@
     </row>
     <row r="2590" spans="1:24">
       <c r="A2590" s="1" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="X2590" s="1" t="s">
         <v>82</v>
@@ -29140,7 +29143,7 @@
     </row>
     <row r="2591" spans="1:24">
       <c r="A2591" s="1" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="X2591" s="1" t="s">
         <v>82</v>
@@ -29148,7 +29151,7 @@
     </row>
     <row r="2592" spans="1:24">
       <c r="A2592" s="1" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="X2592" s="1" t="s">
         <v>82</v>
@@ -29156,7 +29159,7 @@
     </row>
     <row r="2593" spans="1:24">
       <c r="A2593" s="1" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="X2593" s="1" t="s">
         <v>96</v>
@@ -29164,7 +29167,7 @@
     </row>
     <row r="2594" spans="1:24">
       <c r="A2594" s="1" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="X2594" s="1" t="s">
         <v>96</v>
@@ -29172,7 +29175,7 @@
     </row>
     <row r="2595" spans="1:24">
       <c r="A2595" s="1" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="X2595" s="1" t="s">
         <v>82</v>
@@ -29180,7 +29183,7 @@
     </row>
     <row r="2596" spans="1:24">
       <c r="A2596" s="1" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="X2596" s="1" t="s">
         <v>82</v>
@@ -29188,7 +29191,7 @@
     </row>
     <row r="2597" spans="1:24">
       <c r="A2597" s="1" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="X2597" s="1" t="s">
         <v>96</v>
@@ -29196,7 +29199,7 @@
     </row>
     <row r="2598" spans="1:24">
       <c r="A2598" s="1" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="X2598" s="1" t="s">
         <v>96</v>
@@ -29204,7 +29207,7 @@
     </row>
     <row r="2599" spans="1:24">
       <c r="A2599" s="1" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="X2599" s="1" t="s">
         <v>96</v>
@@ -29212,7 +29215,7 @@
     </row>
     <row r="2600" spans="1:24">
       <c r="A2600" s="1" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="X2600" s="1" t="s">
         <v>82</v>
@@ -29220,7 +29223,7 @@
     </row>
     <row r="2601" spans="1:24">
       <c r="A2601" s="1" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="X2601" s="1" t="s">
         <v>82</v>
@@ -29228,7 +29231,7 @@
     </row>
     <row r="2602" spans="1:24">
       <c r="A2602" s="1" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="X2602" s="1" t="s">
         <v>82</v>
@@ -29236,7 +29239,7 @@
     </row>
     <row r="2603" spans="1:24">
       <c r="A2603" s="1" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="X2603" s="1" t="s">
         <v>96</v>
@@ -29244,7 +29247,7 @@
     </row>
     <row r="2604" spans="1:24">
       <c r="A2604" s="1" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="X2604" s="1" t="s">
         <v>96</v>
@@ -29252,7 +29255,7 @@
     </row>
     <row r="2605" spans="1:24">
       <c r="A2605" s="1" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="X2605" s="1" t="s">
         <v>96</v>
@@ -29260,7 +29263,7 @@
     </row>
     <row r="2606" spans="1:24">
       <c r="A2606" s="1" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="X2606" s="1" t="s">
         <v>96</v>
@@ -29268,7 +29271,7 @@
     </row>
     <row r="2607" spans="1:24">
       <c r="A2607" s="1" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="X2607" s="1" t="s">
         <v>82</v>
@@ -29276,7 +29279,7 @@
     </row>
     <row r="2608" spans="1:24">
       <c r="A2608" s="1" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="X2608" s="1" t="s">
         <v>82</v>
@@ -29284,7 +29287,7 @@
     </row>
     <row r="2609" spans="1:24">
       <c r="A2609" s="1" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="X2609" s="1" t="s">
         <v>82</v>
@@ -29292,7 +29295,7 @@
     </row>
     <row r="2610" spans="1:24">
       <c r="A2610" s="1" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="X2610" s="1" t="s">
         <v>96</v>
@@ -29300,7 +29303,7 @@
     </row>
     <row r="2611" spans="1:24">
       <c r="A2611" s="1" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="X2611" s="1" t="s">
         <v>96</v>
@@ -29308,7 +29311,7 @@
     </row>
     <row r="2612" spans="1:24">
       <c r="A2612" s="1" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="X2612" s="1" t="s">
         <v>82</v>
@@ -29316,7 +29319,7 @@
     </row>
     <row r="2613" spans="1:24">
       <c r="A2613" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="X2613" s="1" t="s">
         <v>82</v>
@@ -29324,7 +29327,7 @@
     </row>
     <row r="2614" spans="1:24">
       <c r="A2614" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="X2614" s="1" t="s">
         <v>96</v>
@@ -29332,7 +29335,7 @@
     </row>
     <row r="2615" spans="1:24">
       <c r="A2615" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="X2615" s="1" t="s">
         <v>96</v>
@@ -29340,7 +29343,7 @@
     </row>
     <row r="2616" spans="1:24">
       <c r="A2616" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="X2616" s="1" t="s">
         <v>82</v>
@@ -29348,7 +29351,7 @@
     </row>
     <row r="2617" spans="1:24">
       <c r="A2617" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="X2617" s="1" t="s">
         <v>96</v>
@@ -29356,7 +29359,7 @@
     </row>
     <row r="2618" spans="1:24">
       <c r="A2618" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="X2618" s="1" t="s">
         <v>96</v>
@@ -29364,15 +29367,15 @@
     </row>
     <row r="2619" spans="1:24">
       <c r="A2619" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="X2619" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="2620" spans="1:24">
       <c r="A2620" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="X2620" s="1" t="s">
         <v>96</v>
@@ -29380,7 +29383,7 @@
     </row>
     <row r="2621" spans="1:24">
       <c r="A2621" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="X2621" s="1" t="s">
         <v>96</v>
@@ -29388,7 +29391,7 @@
     </row>
     <row r="2622" spans="1:24">
       <c r="A2622" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="X2622" s="1" t="s">
         <v>82</v>
@@ -29396,7 +29399,7 @@
     </row>
     <row r="2623" spans="1:24">
       <c r="A2623" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="X2623" s="1" t="s">
         <v>82</v>
@@ -29404,7 +29407,7 @@
     </row>
     <row r="2624" spans="1:24">
       <c r="A2624" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="X2624" s="1" t="s">
         <v>82</v>
@@ -29412,7 +29415,7 @@
     </row>
     <row r="2625" spans="1:24">
       <c r="A2625" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="X2625" s="1" t="s">
         <v>82</v>
@@ -29420,7 +29423,7 @@
     </row>
     <row r="2626" spans="1:24">
       <c r="A2626" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="X2626" s="1" t="s">
         <v>96</v>
@@ -29428,7 +29431,7 @@
     </row>
     <row r="2627" spans="1:24">
       <c r="A2627" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="X2627" s="1" t="s">
         <v>96</v>
@@ -29436,7 +29439,7 @@
     </row>
     <row r="2628" spans="1:24">
       <c r="A2628" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="X2628" s="1" t="s">
         <v>96</v>
@@ -29444,7 +29447,7 @@
     </row>
     <row r="2629" spans="1:24">
       <c r="A2629" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="X2629" s="1" t="s">
         <v>82</v>
@@ -29452,7 +29455,7 @@
     </row>
     <row r="2630" spans="1:24">
       <c r="A2630" s="1" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="X2630" s="1" t="s">
         <v>82</v>
@@ -29460,7 +29463,7 @@
     </row>
     <row r="2631" spans="1:24">
       <c r="A2631" s="1" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="X2631" s="1" t="s">
         <v>82</v>
@@ -29468,7 +29471,7 @@
     </row>
     <row r="2632" spans="1:24">
       <c r="A2632" s="1" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="X2632" s="1" t="s">
         <v>82</v>
@@ -29476,7 +29479,7 @@
     </row>
     <row r="2633" spans="1:24">
       <c r="A2633" s="1" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="X2633" s="1" t="s">
         <v>82</v>
@@ -29484,7 +29487,7 @@
     </row>
     <row r="2634" spans="1:24">
       <c r="A2634" s="1" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="X2634" s="1" t="s">
         <v>82</v>
@@ -29492,7 +29495,7 @@
     </row>
     <row r="2635" spans="1:24">
       <c r="A2635" s="1" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="X2635" s="1" t="s">
         <v>82</v>
@@ -29500,7 +29503,7 @@
     </row>
     <row r="2636" spans="1:24">
       <c r="A2636" s="1" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="X2636" s="1" t="s">
         <v>82</v>
@@ -29508,7 +29511,7 @@
     </row>
     <row r="2637" spans="1:24">
       <c r="A2637" s="1" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="X2637" s="1" t="s">
         <v>82</v>
@@ -29516,7 +29519,7 @@
     </row>
     <row r="2638" spans="1:24">
       <c r="A2638" s="1" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="X2638" s="1" t="s">
         <v>82</v>
@@ -29524,7 +29527,7 @@
     </row>
     <row r="2639" spans="1:24">
       <c r="A2639" s="1" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="X2639" s="1" t="s">
         <v>96</v>
@@ -29532,7 +29535,7 @@
     </row>
     <row r="2640" spans="1:24">
       <c r="A2640" s="1" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="X2640" s="1" t="s">
         <v>96</v>
@@ -29540,7 +29543,7 @@
     </row>
     <row r="2641" spans="1:24">
       <c r="A2641" s="1" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="X2641" s="1" t="s">
         <v>96</v>
@@ -29548,7 +29551,7 @@
     </row>
     <row r="2642" spans="1:24">
       <c r="A2642" s="1" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="X2642" s="1" t="s">
         <v>82</v>
@@ -29556,7 +29559,7 @@
     </row>
     <row r="2643" spans="1:24">
       <c r="A2643" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="X2643" s="1" t="s">
         <v>82</v>
@@ -29564,7 +29567,7 @@
     </row>
     <row r="2644" spans="1:24">
       <c r="A2644" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="X2644" s="1" t="s">
         <v>82</v>
@@ -29572,7 +29575,7 @@
     </row>
     <row r="2645" spans="1:24">
       <c r="A2645" s="1" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="X2645" s="1" t="s">
         <v>96</v>
@@ -29580,7 +29583,7 @@
     </row>
     <row r="2646" spans="1:24">
       <c r="A2646" s="1" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="X2646" s="1" t="s">
         <v>82</v>
@@ -29588,7 +29591,7 @@
     </row>
     <row r="2647" spans="1:24">
       <c r="A2647" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="X2647" s="1" t="s">
         <v>96</v>
@@ -29596,7 +29599,7 @@
     </row>
     <row r="2648" spans="1:24">
       <c r="A2648" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="X2648" s="1" t="s">
         <v>96</v>
@@ -29604,7 +29607,7 @@
     </row>
     <row r="2649" spans="1:24">
       <c r="A2649" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="X2649" s="1" t="s">
         <v>96</v>
@@ -29612,7 +29615,7 @@
     </row>
     <row r="2650" spans="1:24">
       <c r="A2650" s="1" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="X2650" s="1" t="s">
         <v>82</v>
@@ -29620,7 +29623,7 @@
     </row>
     <row r="2651" spans="1:24">
       <c r="A2651" s="1" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="X2651" s="1" t="s">
         <v>96</v>
@@ -29628,7 +29631,7 @@
     </row>
     <row r="2652" spans="1:24">
       <c r="A2652" s="1" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="X2652" s="1" t="s">
         <v>82</v>
@@ -29636,7 +29639,7 @@
     </row>
     <row r="2653" spans="1:24">
       <c r="A2653" s="1" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="X2653" s="1" t="s">
         <v>82</v>
@@ -29644,7 +29647,7 @@
     </row>
     <row r="2654" spans="1:24">
       <c r="A2654" s="1" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="X2654" s="1" t="s">
         <v>82</v>
@@ -29652,7 +29655,7 @@
     </row>
     <row r="2655" spans="1:24">
       <c r="A2655" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="X2655" s="1" t="s">
         <v>82</v>
@@ -29660,7 +29663,7 @@
     </row>
     <row r="2656" spans="1:24">
       <c r="A2656" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="X2656" s="1" t="s">
         <v>96</v>
@@ -29668,7 +29671,7 @@
     </row>
     <row r="2657" spans="1:24">
       <c r="A2657" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="X2657" s="1" t="s">
         <v>96</v>
@@ -29676,7 +29679,7 @@
     </row>
     <row r="2658" spans="1:24">
       <c r="A2658" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="X2658" s="1" t="s">
         <v>82</v>
@@ -29684,7 +29687,7 @@
     </row>
     <row r="2659" spans="1:24">
       <c r="A2659" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="X2659" s="1" t="s">
         <v>82</v>
@@ -29692,7 +29695,7 @@
     </row>
     <row r="2660" spans="1:24">
       <c r="A2660" s="1" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="X2660" s="1" t="s">
         <v>82</v>
@@ -29700,7 +29703,7 @@
     </row>
     <row r="2661" spans="1:24">
       <c r="A2661" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="X2661" s="1" t="s">
         <v>82</v>
@@ -29708,7 +29711,7 @@
     </row>
     <row r="2662" spans="1:24">
       <c r="A2662" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="X2662" s="1" t="s">
         <v>96</v>
@@ -29716,7 +29719,7 @@
     </row>
     <row r="2663" spans="1:24">
       <c r="A2663" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="X2663" s="1" t="s">
         <v>96</v>
@@ -29724,7 +29727,7 @@
     </row>
     <row r="2664" spans="1:24">
       <c r="A2664" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="X2664" s="1" t="s">
         <v>82</v>
@@ -29732,7 +29735,7 @@
     </row>
     <row r="2665" spans="1:24">
       <c r="A2665" s="1" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="X2665" s="1" t="s">
         <v>96</v>
@@ -29740,7 +29743,7 @@
     </row>
     <row r="2666" spans="1:24">
       <c r="A2666" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="X2666" s="1" t="s">
         <v>82</v>
@@ -29748,7 +29751,7 @@
     </row>
     <row r="2667" spans="1:24">
       <c r="A2667" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="X2667" s="1" t="s">
         <v>96</v>
@@ -29756,7 +29759,7 @@
     </row>
     <row r="2668" spans="1:24">
       <c r="A2668" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="X2668" s="1" t="s">
         <v>82</v>
@@ -29772,7 +29775,7 @@
     </row>
     <row r="2670" spans="1:24">
       <c r="A2670" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="X2670" s="1" t="s">
         <v>96</v>
@@ -29780,7 +29783,7 @@
     </row>
     <row r="2671" spans="1:24">
       <c r="A2671" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="X2671" s="1" t="s">
         <v>96</v>
@@ -29788,7 +29791,7 @@
     </row>
     <row r="2672" spans="1:24">
       <c r="A2672" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="X2672" s="1" t="s">
         <v>82</v>
@@ -29796,7 +29799,7 @@
     </row>
     <row r="2673" spans="1:24">
       <c r="A2673" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="X2673" s="1" t="s">
         <v>82</v>
@@ -29804,7 +29807,7 @@
     </row>
     <row r="2674" spans="1:24">
       <c r="A2674" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="X2674" s="1" t="s">
         <v>96</v>
@@ -29812,7 +29815,7 @@
     </row>
     <row r="2675" spans="1:24">
       <c r="A2675" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="X2675" s="1" t="s">
         <v>82</v>
@@ -29820,7 +29823,7 @@
     </row>
     <row r="2676" spans="1:24">
       <c r="A2676" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="X2676" s="1" t="s">
         <v>96</v>
@@ -29828,7 +29831,7 @@
     </row>
     <row r="2677" spans="1:24">
       <c r="A2677" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="X2677" s="1" t="s">
         <v>82</v>
@@ -29836,7 +29839,7 @@
     </row>
     <row r="2678" spans="1:24">
       <c r="A2678" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="X2678" s="1" t="s">
         <v>96</v>
@@ -29844,7 +29847,7 @@
     </row>
     <row r="2679" spans="1:24">
       <c r="A2679" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="X2679" s="1" t="s">
         <v>82</v>
@@ -29852,7 +29855,7 @@
     </row>
     <row r="2680" spans="1:24">
       <c r="A2680" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="X2680" s="1" t="s">
         <v>96</v>
@@ -29860,7 +29863,7 @@
     </row>
     <row r="2681" spans="1:24">
       <c r="A2681" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="X2681" s="1" t="s">
         <v>82</v>
@@ -29868,7 +29871,7 @@
     </row>
     <row r="2682" spans="1:24">
       <c r="A2682" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="X2682" s="1" t="s">
         <v>96</v>
@@ -29876,7 +29879,7 @@
     </row>
     <row r="2683" spans="1:24">
       <c r="A2683" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="X2683" s="1" t="s">
         <v>82</v>
@@ -29884,7 +29887,7 @@
     </row>
     <row r="2684" spans="1:24">
       <c r="A2684" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="X2684" s="1" t="s">
         <v>96</v>
@@ -29892,7 +29895,7 @@
     </row>
     <row r="2685" spans="1:24">
       <c r="A2685" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="X2685" s="1" t="s">
         <v>82</v>
@@ -29900,7 +29903,7 @@
     </row>
     <row r="2686" spans="1:24">
       <c r="A2686" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="X2686" s="1" t="s">
         <v>82</v>
@@ -29908,7 +29911,7 @@
     </row>
     <row r="2687" spans="1:24">
       <c r="A2687" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="X2687" s="1" t="s">
         <v>82</v>
@@ -29916,7 +29919,7 @@
     </row>
     <row r="2688" spans="1:24">
       <c r="A2688" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="X2688" s="1" t="s">
         <v>82</v>
@@ -29924,7 +29927,7 @@
     </row>
     <row r="2689" spans="1:24">
       <c r="A2689" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="X2689" s="1" t="s">
         <v>96</v>
@@ -29932,7 +29935,7 @@
     </row>
     <row r="2690" spans="1:24">
       <c r="A2690" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="X2690" s="1" t="s">
         <v>96</v>
@@ -29940,7 +29943,7 @@
     </row>
     <row r="2691" spans="1:24">
       <c r="A2691" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="X2691" s="1" t="s">
         <v>82</v>
@@ -29948,7 +29951,7 @@
     </row>
     <row r="2692" spans="1:24">
       <c r="A2692" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="X2692" s="1" t="s">
         <v>82</v>
@@ -29956,7 +29959,7 @@
     </row>
     <row r="2693" spans="1:24">
       <c r="A2693" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="X2693" s="1" t="s">
         <v>96</v>
@@ -29964,7 +29967,7 @@
     </row>
     <row r="2694" spans="1:24">
       <c r="A2694" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="X2694" s="1" t="s">
         <v>96</v>
@@ -29972,7 +29975,7 @@
     </row>
     <row r="2695" spans="1:24">
       <c r="A2695" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="X2695" s="1" t="s">
         <v>96</v>
@@ -29980,7 +29983,7 @@
     </row>
     <row r="2696" spans="1:24">
       <c r="A2696" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="X2696" s="1" t="s">
         <v>96</v>
@@ -29988,7 +29991,7 @@
     </row>
     <row r="2697" spans="1:24">
       <c r="A2697" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="X2697" s="1" t="s">
         <v>82</v>
@@ -29996,7 +29999,7 @@
     </row>
     <row r="2698" spans="1:24">
       <c r="A2698" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="X2698" s="1" t="s">
         <v>96</v>
@@ -30004,7 +30007,7 @@
     </row>
     <row r="2699" spans="1:24">
       <c r="A2699" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="X2699" s="1" t="s">
         <v>82</v>
@@ -30012,7 +30015,7 @@
     </row>
     <row r="2700" spans="1:24">
       <c r="A2700" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="X2700" s="1" t="s">
         <v>96</v>
@@ -30020,7 +30023,7 @@
     </row>
     <row r="2701" spans="1:24">
       <c r="A2701" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="X2701" s="1" t="s">
         <v>96</v>
@@ -30028,7 +30031,7 @@
     </row>
     <row r="2702" spans="1:24">
       <c r="A2702" s="1" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="X2702" s="1" t="s">
         <v>96</v>
@@ -30036,7 +30039,7 @@
     </row>
     <row r="2703" spans="1:24">
       <c r="A2703" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="X2703" s="1" t="s">
         <v>96</v>
@@ -30044,7 +30047,7 @@
     </row>
     <row r="2704" spans="1:24">
       <c r="A2704" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="X2704" s="1" t="s">
         <v>82</v>
@@ -30052,7 +30055,7 @@
     </row>
     <row r="2705" spans="1:24">
       <c r="A2705" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="X2705" s="1" t="s">
         <v>82</v>
@@ -30060,7 +30063,7 @@
     </row>
     <row r="2706" spans="1:24">
       <c r="A2706" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="X2706" s="1" t="s">
         <v>82</v>
@@ -30068,7 +30071,7 @@
     </row>
     <row r="2707" spans="1:24">
       <c r="A2707" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="X2707" s="1" t="s">
         <v>82</v>
@@ -30076,7 +30079,7 @@
     </row>
     <row r="2708" spans="1:24">
       <c r="A2708" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="X2708" s="1" t="s">
         <v>96</v>
@@ -30084,7 +30087,7 @@
     </row>
     <row r="2709" spans="1:24">
       <c r="A2709" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="X2709" s="1" t="s">
         <v>82</v>
@@ -30092,7 +30095,7 @@
     </row>
     <row r="2710" spans="1:24">
       <c r="A2710" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="X2710" s="1" t="s">
         <v>96</v>
@@ -30100,7 +30103,7 @@
     </row>
     <row r="2711" spans="1:24">
       <c r="A2711" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="X2711" s="1" t="s">
         <v>82</v>
@@ -30108,7 +30111,7 @@
     </row>
     <row r="2712" spans="1:24">
       <c r="A2712" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="X2712" s="1" t="s">
         <v>96</v>
@@ -30116,7 +30119,7 @@
     </row>
     <row r="2713" spans="1:24">
       <c r="A2713" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="X2713" s="1" t="s">
         <v>82</v>
@@ -30124,7 +30127,7 @@
     </row>
     <row r="2714" spans="1:24">
       <c r="A2714" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="X2714" s="1" t="s">
         <v>96</v>
@@ -30132,7 +30135,7 @@
     </row>
     <row r="2715" spans="1:24">
       <c r="A2715" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="X2715" s="1" t="s">
         <v>82</v>
@@ -30140,7 +30143,7 @@
     </row>
     <row r="2716" spans="1:24">
       <c r="A2716" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="X2716" s="1" t="s">
         <v>96</v>
@@ -30148,7 +30151,7 @@
     </row>
     <row r="2717" spans="1:24">
       <c r="A2717" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="X2717" s="1" t="s">
         <v>96</v>
@@ -30156,7 +30159,7 @@
     </row>
     <row r="2718" spans="1:24">
       <c r="A2718" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="X2718" s="1" t="s">
         <v>82</v>
@@ -30164,7 +30167,7 @@
     </row>
     <row r="2719" spans="1:24">
       <c r="A2719" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="X2719" s="1" t="s">
         <v>96</v>
@@ -30172,7 +30175,7 @@
     </row>
     <row r="2720" spans="1:24">
       <c r="A2720" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="X2720" s="1" t="s">
         <v>82</v>
@@ -30180,7 +30183,7 @@
     </row>
     <row r="2721" spans="1:24">
       <c r="A2721" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="X2721" s="1" t="s">
         <v>96</v>
@@ -30188,7 +30191,7 @@
     </row>
     <row r="2722" spans="1:24">
       <c r="A2722" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="X2722" s="1" t="s">
         <v>96</v>
@@ -30196,7 +30199,7 @@
     </row>
     <row r="2723" spans="1:24">
       <c r="A2723" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="X2723" s="1" t="s">
         <v>82</v>
@@ -30204,7 +30207,7 @@
     </row>
     <row r="2724" spans="1:24">
       <c r="A2724" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="X2724" s="1" t="s">
         <v>82</v>
@@ -30212,7 +30215,7 @@
     </row>
     <row r="2725" spans="1:24">
       <c r="A2725" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="X2725" s="1" t="s">
         <v>96</v>
@@ -30220,7 +30223,7 @@
     </row>
     <row r="2726" spans="1:24">
       <c r="A2726" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="X2726" s="1" t="s">
         <v>96</v>
@@ -30228,7 +30231,7 @@
     </row>
     <row r="2727" spans="1:24">
       <c r="A2727" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="X2727" s="1" t="s">
         <v>82</v>
@@ -30236,7 +30239,7 @@
     </row>
     <row r="2728" spans="1:24">
       <c r="A2728" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="X2728" s="1" t="s">
         <v>82</v>
@@ -30244,7 +30247,7 @@
     </row>
     <row r="2729" spans="1:24">
       <c r="A2729" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="X2729" s="1" t="s">
         <v>96</v>
@@ -30252,7 +30255,7 @@
     </row>
     <row r="2730" spans="1:24">
       <c r="A2730" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="X2730" s="1" t="s">
         <v>82</v>
@@ -30260,7 +30263,7 @@
     </row>
     <row r="2731" spans="1:24">
       <c r="A2731" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="X2731" s="1" t="s">
         <v>96</v>
@@ -30268,7 +30271,7 @@
     </row>
     <row r="2732" spans="1:24">
       <c r="A2732" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="X2732" s="1" t="s">
         <v>96</v>
@@ -30276,7 +30279,7 @@
     </row>
     <row r="2733" spans="1:24">
       <c r="A2733" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="X2733" s="1" t="s">
         <v>82</v>
@@ -30284,7 +30287,7 @@
     </row>
     <row r="2734" spans="1:24">
       <c r="A2734" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="X2734" s="1" t="s">
         <v>82</v>
@@ -30299,7 +30302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -30314,7 +30317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
